--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -18,21 +18,24 @@
     <t>list_name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>label::en</t>
   </si>
   <si>
     <t>label::hi</t>
   </si>
   <si>
+    <t>label::id</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -48,36 +51,33 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>label::id</t>
-  </si>
-  <si>
     <t>label::sw</t>
   </si>
   <si>
+    <t>Edit Person</t>
+  </si>
+  <si>
+    <t>contact:person:edit</t>
+  </si>
+  <si>
     <t>label::ne</t>
   </si>
   <si>
-    <t>Edit Person</t>
-  </si>
-  <si>
-    <t>contact:person:edit</t>
-  </si>
-  <si>
     <t>label::es</t>
   </si>
   <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>label::fr</t>
   </si>
   <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>constraint_message::hi</t>
   </si>
   <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
     <t>Ndiyo</t>
   </si>
   <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
     <t>constraint_message::sw</t>
   </si>
   <si>
@@ -159,6 +159,9 @@
     <t>hint::fr</t>
   </si>
   <si>
+    <t>हो</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -168,42 +171,39 @@
     <t>begin group</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>हो</t>
-  </si>
-  <si>
-    <t>Oui</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">नहीं </t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Siyo</t>
+  </si>
+  <si>
+    <t>होइन</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नहीं </t>
-  </si>
-  <si>
-    <t>Tidak</t>
-  </si>
-  <si>
-    <t>Siyo</t>
-  </si>
-  <si>
-    <t>होइन</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>male_female</t>
   </si>
   <si>
@@ -228,24 +228,24 @@
     <t>Contact ID of the logged in user</t>
   </si>
   <si>
+    <t>mwanamke</t>
+  </si>
+  <si>
     <t>Mawasiliano ya mtumizi</t>
   </si>
   <si>
-    <t>mwanamke</t>
+    <t>महिला</t>
   </si>
   <si>
     <t>लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
   </si>
   <si>
-    <t>महिला</t>
+    <t>Femme</t>
   </si>
   <si>
     <t>Identifiant de l'utilisateur</t>
   </si>
   <si>
-    <t>Femme</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -309,48 +309,51 @@
     <t>Fille</t>
   </si>
   <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>लॉग इन यूज़र का नाम</t>
+  </si>
+  <si>
+    <t>Nama dari login user</t>
+  </si>
+  <si>
     <t>Boy</t>
   </si>
   <si>
+    <t>Jina la mtumizi</t>
+  </si>
+  <si>
     <t>लड़का</t>
   </si>
   <si>
+    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anak laki-laki </t>
   </si>
   <si>
+    <t>Nom</t>
+  </si>
+  <si>
     <t>Kijana</t>
   </si>
   <si>
     <t>छोरा</t>
   </si>
   <si>
-    <t>Name of the logged in user</t>
-  </si>
-  <si>
     <t>Garçon</t>
   </si>
   <si>
-    <t>लॉग इन यूज़र का नाम</t>
-  </si>
-  <si>
-    <t>Nama dari login user</t>
-  </si>
-  <si>
-    <t>Jina la mtumizi</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
     <t>select_dob_method</t>
   </si>
   <si>
     <t>approx</t>
   </si>
   <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>Date unknown</t>
   </si>
   <si>
@@ -369,9 +372,6 @@
     <t>Date de naissance inconnue</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>roles</t>
   </si>
   <si>
@@ -435,9 +435,15 @@
     <t>Infirmier</t>
   </si>
   <si>
+    <t>init</t>
+  </si>
+  <si>
     <t>manager</t>
   </si>
   <si>
+    <t>field-list</t>
+  </si>
+  <si>
     <t>Facility Manager</t>
   </si>
   <si>
@@ -456,9 +462,18 @@
     <t>Personnel médical</t>
   </si>
   <si>
+    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
     <t>patient</t>
   </si>
   <si>
+    <t>person_name</t>
+  </si>
+  <si>
     <t>Patient</t>
   </si>
   <si>
@@ -474,6 +489,12 @@
     <t>बिरामी</t>
   </si>
   <si>
+    <t>../../person/name</t>
+  </si>
+  <si>
+    <t>Copy to access from within note</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
@@ -492,10 +513,7 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>init</t>
-  </si>
-  <si>
-    <t>field-list</t>
+    <t>person_place_name</t>
   </si>
   <si>
     <t>place_type</t>
@@ -507,9 +525,6 @@
     <t>Health Facility</t>
   </si>
   <si>
-    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
-  </si>
-  <si>
     <t>ज़िला</t>
   </si>
   <si>
@@ -519,21 +534,33 @@
     <t>Wilaya</t>
   </si>
   <si>
+    <t>../name</t>
+  </si>
+  <si>
     <t>जिल्ला</t>
   </si>
   <si>
     <t>District</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>person_name</t>
+    <t>person_parent</t>
+  </si>
+  <si>
+    <t>Current Place</t>
   </si>
   <si>
     <t>health_center</t>
   </si>
   <si>
+    <t>Place actuelle</t>
+  </si>
+  <si>
+    <t>db-object hidden</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
@@ -549,15 +576,12 @@
     <t>स्वास्थ्य केन्द्र</t>
   </si>
   <si>
+    <t>${parent}</t>
+  </si>
+  <si>
     <t>Centre de santé</t>
   </si>
   <si>
-    <t>../../person/name</t>
-  </si>
-  <si>
-    <t>Copy to access from within note</t>
-  </si>
-  <si>
     <t>clinic</t>
   </si>
   <si>
@@ -567,7 +591,7 @@
     <t>क्षेत्र</t>
   </si>
   <si>
-    <t>person_place_name</t>
+    <t>hidden</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah </t>
@@ -579,30 +603,6 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>../name</t>
-  </si>
-  <si>
-    <t>person_parent</t>
-  </si>
-  <si>
-    <t>Current Place</t>
-  </si>
-  <si>
-    <t>Place actuelle</t>
-  </si>
-  <si>
-    <t>db-object hidden</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>${parent}</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
     <t>Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
@@ -957,7 +957,7 @@
     <t>dob_approx</t>
   </si>
   <si>
-    <t>date(concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d"))))</t>
+    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
@@ -1298,18 +1298,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1319,13 +1319,13 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1334,16 +1334,16 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1367,6 +1367,9 @@
     <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1623,58 +1626,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>32</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="S1" s="15" t="s">
@@ -1686,22 +1689,22 @@
       <c r="U1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="14" t="s">
         <v>44</v>
       </c>
       <c r="AB1" s="15" t="s">
@@ -1713,840 +1716,840 @@
       <c r="AD1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
+      <c r="AF1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="b">
+      <c r="B2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="26"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
+      <c r="A3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
+      <c r="F4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="26"/>
-      <c r="AR5" s="26"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="26"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="26"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
+      <c r="A7" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
+      <c r="A8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="19"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="35"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="32"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="32"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
+        <v>140</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
+        <v>152</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
+        <v>166</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
+        <v>176</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="36" t="s">
@@ -2555,60 +2558,60 @@
       <c r="B16" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="36" t="s">
@@ -2617,66 +2620,66 @@
       <c r="B17" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30" t="s">
+      <c r="J17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -2685,66 +2688,66 @@
       <c r="B18" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="J18" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="30"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="36" t="s">
@@ -2753,68 +2756,68 @@
       <c r="B19" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="J19" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30" t="s">
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="36" t="s">
@@ -2823,68 +2826,68 @@
       <c r="B20" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30" t="s">
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="J20" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30" t="s">
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="36" t="s">
@@ -2893,102 +2896,102 @@
       <c r="B21" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="J21" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
       <c r="AE22" s="38"/>
       <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
@@ -3005,156 +3008,156 @@
       <c r="AR22" s="38"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="19"/>
       <c r="E23" s="32"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
       <c r="O23" s="35"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="32"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="19"/>
       <c r="Z23" s="32"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>256</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30" t="s">
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="38"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30" t="s">
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29" t="s">
         <v>262</v>
       </c>
       <c r="W25" s="38"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
       <c r="AE25" s="38"/>
-      <c r="AF25" s="30"/>
+      <c r="AF25" s="29"/>
       <c r="AG25" s="38"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
@@ -3170,201 +3173,201 @@
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30" t="s">
+      <c r="C26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="AF27" s="30" t="s">
+      <c r="AF27" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="36" t="s">
@@ -3373,230 +3376,230 @@
       <c r="B29" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="O29" s="30" t="s">
+      <c r="O29" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
       <c r="X29" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30" t="s">
+      <c r="J30" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
+      <c r="C32" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="36" t="s">
@@ -3605,60 +3608,60 @@
       <c r="B33" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" s="30" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30" t="s">
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="O33" s="30" t="s">
+      <c r="O33" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30" t="s">
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="36" t="s">
@@ -3667,52 +3670,52 @@
       <c r="B34" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="36" t="s">
@@ -3721,58 +3724,58 @@
       <c r="B35" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="30" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30" t="s">
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="O35" s="30" t="s">
+      <c r="O35" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="36" t="s">
@@ -3781,56 +3784,56 @@
       <c r="B36" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30" t="s">
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="O36" s="30" t="s">
+      <c r="O36" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="36" t="s">
@@ -3839,312 +3842,312 @@
       <c r="B37" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="30"/>
-      <c r="AR37" s="30"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B38" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="30"/>
-      <c r="AN38" s="30"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="30"/>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="30"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B39" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="30"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="30"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="30"/>
-      <c r="AR39" s="30"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B40" s="42" t="s">
         <v>313</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30" t="s">
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="30"/>
-      <c r="AJ40" s="30"/>
-      <c r="AK40" s="30"/>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="30"/>
-      <c r="AN40" s="30"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="30"/>
-      <c r="AQ40" s="30"/>
-      <c r="AR40" s="30"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="29"/>
+      <c r="AO40" s="29"/>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AR40" s="29"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="30"/>
-      <c r="AK41" s="30"/>
-      <c r="AL41" s="30"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B42" s="42" t="s">
         <v>317</v>
       </c>
       <c r="C42" s="43"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30" t="s">
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="30"/>
-      <c r="AM42" s="30"/>
-      <c r="AN42" s="30"/>
-      <c r="AO42" s="30"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="30"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="29"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="29"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="36" t="s">
@@ -4153,100 +4156,100 @@
       <c r="B43" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30" t="b">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="30"/>
-      <c r="AJ43" s="30"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="29"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="29"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="29"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="29"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="36" t="s">
@@ -4255,68 +4258,68 @@
       <c r="B45" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30" t="s">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30" t="b">
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="O45" s="30" t="s">
+      <c r="O45" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="P45" s="30" t="s">
+      <c r="P45" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30" t="s">
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="29"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="36" t="s">
@@ -4325,68 +4328,68 @@
       <c r="B46" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30" t="s">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30" t="b">
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="O46" s="30" t="s">
+      <c r="O46" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="P46" s="30" t="s">
+      <c r="P46" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30" t="s">
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="30"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="30"/>
-      <c r="AN46" s="30"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="29"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="29"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="36" t="s">
@@ -4395,62 +4398,62 @@
       <c r="B47" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30" t="s">
+      <c r="H47" s="29"/>
+      <c r="I47" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30" t="s">
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="36" t="s">
@@ -4459,46 +4462,46 @@
       <c r="B48" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="G48" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30" t="s">
+      <c r="H48" s="29"/>
+      <c r="I48" s="29" t="s">
         <v>352</v>
       </c>
       <c r="J48" s="38"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
       <c r="N48" s="38"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
       <c r="W48" s="38"/>
       <c r="X48" s="38"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
       <c r="AG48" s="38"/>
@@ -4521,50 +4524,50 @@
       <c r="B49" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30" t="s">
+      <c r="H49" s="29"/>
+      <c r="I49" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="J49" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K49" s="30" t="s">
+      <c r="J49" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="38"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
       <c r="W49" s="38"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
       <c r="AG49" s="38"/>
@@ -4587,46 +4590,46 @@
       <c r="B50" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="G50" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30" t="s">
+      <c r="H50" s="29"/>
+      <c r="I50" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
       <c r="W50" s="38"/>
       <c r="X50" s="38"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
       <c r="AG50" s="38"/>
@@ -4647,50 +4650,50 @@
         <v>68</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30" t="s">
+      <c r="H51" s="29"/>
+      <c r="I51" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30" t="s">
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
       <c r="W51" s="38"/>
       <c r="X51" s="38"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
       <c r="AG51" s="38"/>
@@ -4708,53 +4711,53 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
+      <c r="C52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
       <c r="W52" s="38"/>
       <c r="X52" s="38"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
       <c r="AE52" s="38"/>
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
@@ -4772,385 +4775,385 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="30"/>
-      <c r="AG53" s="30"/>
-      <c r="AH53" s="30"/>
-      <c r="AI53" s="30"/>
-      <c r="AJ53" s="30"/>
-      <c r="AK53" s="30"/>
-      <c r="AL53" s="30"/>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="30"/>
-      <c r="AO53" s="30"/>
-      <c r="AP53" s="30"/>
-      <c r="AQ53" s="30"/>
-      <c r="AR53" s="30"/>
+      <c r="C53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="29"/>
+      <c r="AR53" s="29"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="30"/>
-      <c r="AG54" s="30"/>
-      <c r="AH54" s="30"/>
-      <c r="AI54" s="30"/>
-      <c r="AJ54" s="30"/>
-      <c r="AK54" s="30"/>
-      <c r="AL54" s="30"/>
-      <c r="AM54" s="30"/>
-      <c r="AN54" s="30"/>
-      <c r="AO54" s="30"/>
-      <c r="AP54" s="30"/>
-      <c r="AQ54" s="30"/>
-      <c r="AR54" s="30"/>
+      <c r="C54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="29"/>
+      <c r="AQ54" s="29"/>
+      <c r="AR54" s="29"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
+      <c r="C55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
+      <c r="AR55" s="29"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="C56" s="30"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="40"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30" t="s">
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="30"/>
-      <c r="AG56" s="30"/>
-      <c r="AH56" s="30"/>
-      <c r="AI56" s="30"/>
-      <c r="AJ56" s="30"/>
-      <c r="AK56" s="30"/>
-      <c r="AL56" s="30"/>
-      <c r="AM56" s="30"/>
-      <c r="AN56" s="30"/>
-      <c r="AO56" s="30"/>
-      <c r="AP56" s="30"/>
-      <c r="AQ56" s="30"/>
-      <c r="AR56" s="30"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="29"/>
+      <c r="AM56" s="29"/>
+      <c r="AN56" s="29"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="29"/>
+      <c r="AQ56" s="29"/>
+      <c r="AR56" s="29"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="C57" s="30"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30" t="s">
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
-      <c r="AE57" s="30"/>
-      <c r="AF57" s="30"/>
-      <c r="AG57" s="30"/>
-      <c r="AH57" s="30"/>
-      <c r="AI57" s="30"/>
-      <c r="AJ57" s="30"/>
-      <c r="AK57" s="30"/>
-      <c r="AL57" s="30"/>
-      <c r="AM57" s="30"/>
-      <c r="AN57" s="30"/>
-      <c r="AO57" s="30"/>
-      <c r="AP57" s="30"/>
-      <c r="AQ57" s="30"/>
-      <c r="AR57" s="30"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="29"/>
+      <c r="AM57" s="29"/>
+      <c r="AN57" s="29"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="29"/>
+      <c r="AQ57" s="29"/>
+      <c r="AR57" s="29"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B58" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="30"/>
-      <c r="AM58" s="30"/>
-      <c r="AN58" s="30"/>
-      <c r="AO58" s="30"/>
-      <c r="AP58" s="30"/>
-      <c r="AQ58" s="30"/>
-      <c r="AR58" s="30"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="29"/>
+      <c r="AL58" s="29"/>
+      <c r="AM58" s="29"/>
+      <c r="AN58" s="29"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="29"/>
+      <c r="AR58" s="29"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B59" s="36"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
@@ -5168,37 +5171,37 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B60" s="36"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
       <c r="W60" s="38"/>
       <c r="X60" s="38"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="30"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
       <c r="AE60" s="38"/>
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
@@ -5248,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -5257,19 +5260,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>17</v>
+      <c r="I1" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5302,18 +5305,18 @@
       <c r="D2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
-        <v>54</v>
+      <c r="F2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -5338,26 +5341,26 @@
         <v>21</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="29" t="s">
         <v>61</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5393,15 +5396,15 @@
       <c r="E4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
-        <v>76</v>
+      <c r="F4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -5437,14 +5440,14 @@
       <c r="E5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="J5" s="6"/>
@@ -5481,14 +5484,14 @@
       <c r="E6" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="29" t="s">
         <v>97</v>
       </c>
       <c r="J6" s="6"/>
@@ -5517,23 +5520,23 @@
         <v>77</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -5561,23 +5564,23 @@
         <v>111</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
+      <c r="G8" s="25" t="s">
         <v>117</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -5613,14 +5616,14 @@
       <c r="E9" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="29" t="s">
         <v>126</v>
       </c>
       <c r="J9" s="6"/>
@@ -5657,14 +5660,14 @@
       <c r="E10" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="29" t="s">
         <v>133</v>
       </c>
       <c r="J10" s="6"/>
@@ -5701,14 +5704,14 @@
       <c r="E11" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="29" t="s">
         <v>139</v>
       </c>
       <c r="J11" s="6"/>
@@ -5734,26 +5737,26 @@
         <v>119</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30" t="s">
+      <c r="F12" s="24" t="s">
         <v>146</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -5778,26 +5781,26 @@
         <v>119</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29" t="s">
+        <v>153</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -5822,26 +5825,26 @@
         <v>119</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -5863,29 +5866,29 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5907,29 +5910,29 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -5951,29 +5954,29 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -6019,23 +6022,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -6060,23 +6063,23 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13" t="str">
+      <c r="C2" s="10" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2019-10-09_12-32</v>
+        <v>2019-10-22_00-47</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>

--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -284,7 +284,7 @@
     <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
-    <t>horizontal-compact</t>
+    <t>columns-pack</t>
   </si>
   <si>
     <t>false</t>
@@ -575,7 +575,7 @@
     <t>DELETE_THIS_LINE</t>
   </si>
   <si>
-    <t>horizontal</t>
+    <t>columns</t>
   </si>
   <si>
     <t>ephemeral_months</t>
@@ -1299,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1326,6 +1326,7 @@
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1875,7 +1876,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
@@ -2927,7 +2928,7 @@
         <v>69</v>
       </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="22" t="s">
         <v>89</v>
       </c>
       <c r="M17" s="19"/>
@@ -2997,7 +2998,7 @@
       <c r="K18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="22" t="s">
         <v>89</v>
       </c>
       <c r="M18" s="19"/>
@@ -3268,28 +3269,28 @@
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11"/>
@@ -3297,7 +3298,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
@@ -3353,7 +3354,7 @@
       <c r="E24" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="25" t="s">
         <v>135</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -3417,11 +3418,11 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="N25" s="22"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -3432,7 +3433,7 @@
       <c r="V25" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="W25" s="22"/>
+      <c r="W25" s="23"/>
       <c r="X25" s="19"/>
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
@@ -3440,20 +3441,20 @@
       <c r="AB25" s="19"/>
       <c r="AC25" s="19"/>
       <c r="AD25" s="19"/>
-      <c r="AE25" s="22"/>
+      <c r="AE25" s="23"/>
       <c r="AF25" s="19"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="22"/>
-      <c r="AP25" s="22"/>
-      <c r="AQ25" s="22"/>
-      <c r="AR25" s="22"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="21" t="s">
@@ -3689,7 +3690,7 @@
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
-      <c r="X29" s="25" t="s">
+      <c r="X29" s="26" t="s">
         <v>152</v>
       </c>
       <c r="Y29" s="19"/>
@@ -4137,7 +4138,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="22" t="s">
         <v>186</v>
       </c>
       <c r="M37" s="19"/>
@@ -4177,7 +4178,7 @@
       <c r="A38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="19"/>
@@ -4229,7 +4230,7 @@
       <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>189</v>
       </c>
       <c r="C39" s="19"/>
@@ -4281,10 +4282,10 @@
       <c r="A40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -4303,7 +4304,7 @@
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
-      <c r="V40" s="27" t="s">
+      <c r="V40" s="28" t="s">
         <v>192</v>
       </c>
       <c r="W40" s="19"/>
@@ -4333,7 +4334,7 @@
       <c r="A41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="27" t="s">
         <v>193</v>
       </c>
       <c r="C41" s="19"/>
@@ -4385,10 +4386,10 @@
       <c r="A42" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
@@ -4703,7 +4704,7 @@
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="22" t="s">
         <v>186</v>
       </c>
       <c r="M47" s="19"/>
@@ -4765,11 +4766,11 @@
       <c r="I48" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="J48" s="22"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="22"/>
+      <c r="N48" s="23"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -4778,28 +4779,28 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="19"/>
       <c r="AB48" s="19"/>
       <c r="AC48" s="19"/>
       <c r="AD48" s="19"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AQ48" s="22"/>
-      <c r="AR48" s="22"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="23"/>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="23"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
@@ -4835,7 +4836,7 @@
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
-      <c r="N49" s="22"/>
+      <c r="N49" s="23"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -4844,7 +4845,7 @@
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
       <c r="V49" s="19"/>
-      <c r="W49" s="22"/>
+      <c r="W49" s="23"/>
       <c r="X49" s="19"/>
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
@@ -4852,20 +4853,20 @@
       <c r="AB49" s="19"/>
       <c r="AC49" s="19"/>
       <c r="AD49" s="19"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="22"/>
-      <c r="AP49" s="22"/>
-      <c r="AQ49" s="22"/>
-      <c r="AR49" s="22"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="23"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="21" t="s">
@@ -4906,28 +4907,28 @@
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="23"/>
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AB50" s="19"/>
       <c r="AC50" s="19"/>
       <c r="AD50" s="19"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="22"/>
-      <c r="AP50" s="22"/>
-      <c r="AQ50" s="22"/>
-      <c r="AR50" s="22"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="23"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="23"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
@@ -4970,28 +4971,28 @@
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
       <c r="AB51" s="19"/>
       <c r="AC51" s="19"/>
       <c r="AD51" s="19"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="22"/>
-      <c r="AP51" s="22"/>
-      <c r="AQ51" s="22"/>
-      <c r="AR51" s="22"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="23"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="23"/>
+      <c r="AR51" s="23"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="21" t="s">
@@ -5034,28 +5035,28 @@
       <c r="T52" s="19"/>
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AB52" s="19"/>
       <c r="AC52" s="19"/>
       <c r="AD52" s="19"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="22"/>
-      <c r="AJ52" s="22"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="22"/>
-      <c r="AM52" s="22"/>
-      <c r="AN52" s="22"/>
-      <c r="AO52" s="22"/>
-      <c r="AP52" s="22"/>
-      <c r="AQ52" s="22"/>
-      <c r="AR52" s="22"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="23"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
@@ -5257,7 +5258,7 @@
         <v>256</v>
       </c>
       <c r="C56" s="19"/>
-      <c r="D56" s="24"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -5309,7 +5310,7 @@
         <v>258</v>
       </c>
       <c r="C57" s="19"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -5430,28 +5431,28 @@
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
       <c r="V59" s="19"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="23"/>
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
       <c r="AA59" s="19"/>
       <c r="AB59" s="19"/>
       <c r="AC59" s="19"/>
       <c r="AD59" s="19"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22"/>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
+      <c r="AE59" s="23"/>
+      <c r="AF59" s="23"/>
+      <c r="AG59" s="23"/>
+      <c r="AH59" s="23"/>
+      <c r="AI59" s="23"/>
+      <c r="AJ59" s="23"/>
+      <c r="AK59" s="23"/>
+      <c r="AL59" s="23"/>
+      <c r="AM59" s="23"/>
+      <c r="AN59" s="23"/>
+      <c r="AO59" s="23"/>
+      <c r="AP59" s="23"/>
+      <c r="AQ59" s="23"/>
+      <c r="AR59" s="23"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="21" t="s">
@@ -5478,33 +5479,33 @@
       <c r="T60" s="19"/>
       <c r="U60" s="19"/>
       <c r="V60" s="19"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="22"/>
-      <c r="AJ60" s="22"/>
-      <c r="AK60" s="22"/>
-      <c r="AL60" s="22"/>
-      <c r="AM60" s="22"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="22"/>
-      <c r="AP60" s="22"/>
-      <c r="AQ60" s="22"/>
-      <c r="AR60" s="22"/>
+      <c r="AE60" s="23"/>
+      <c r="AF60" s="23"/>
+      <c r="AG60" s="23"/>
+      <c r="AH60" s="23"/>
+      <c r="AI60" s="23"/>
+      <c r="AJ60" s="23"/>
+      <c r="AK60" s="23"/>
+      <c r="AL60" s="23"/>
+      <c r="AM60" s="23"/>
+      <c r="AN60" s="23"/>
+      <c r="AO60" s="23"/>
+      <c r="AP60" s="23"/>
+      <c r="AQ60" s="23"/>
+      <c r="AR60" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5533,31 +5534,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11"/>
@@ -5579,13 +5580,13 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>265</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -5623,13 +5624,13 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>271</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5667,16 +5668,16 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -5711,13 +5712,13 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>286</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -5755,13 +5756,13 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>293</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -5799,13 +5800,13 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>299</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5846,10 +5847,10 @@
       <c r="A8" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="39" t="s">
         <v>307</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -5890,10 +5891,10 @@
       <c r="A9" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="39" t="s">
         <v>315</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -5934,10 +5935,10 @@
       <c r="A10" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="39" t="s">
         <v>322</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -5978,10 +5979,10 @@
       <c r="A11" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="39" t="s">
         <v>329</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -6022,13 +6023,13 @@
       <c r="A12" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>336</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -6110,10 +6111,10 @@
       <c r="A14" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="39" t="s">
         <v>348</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -6154,10 +6155,10 @@
       <c r="A15" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>355</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -6198,10 +6199,10 @@
       <c r="A16" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>362</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -6242,13 +6243,13 @@
       <c r="A17" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>370</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -6285,7 +6286,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6310,22 +6311,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>379</v>
       </c>
       <c r="G1" s="11"/>
@@ -6356,9 +6357,9 @@
       <c r="B2" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="41" t="str">
+      <c r="C2" s="42" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-06-13 17-11</v>
+        <v xml:space="preserve">2022-08-19 14-46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>381</v>
@@ -13277,7 +13278,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -1,144 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="382">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t xml:space="preserve">begin group</t>
   </si>
   <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_id</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>false()</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">Contact ID of the logged in user</t>
@@ -153,7 +147,7 @@
     <t xml:space="preserve">Identifiant de l'utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">facility_id</t>
+    <t>facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">Place ID of the logged in user</t>
@@ -189,40 +183,40 @@
     <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom</t>
+    <t>Nom</t>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
   </si>
   <si>
-    <t xml:space="preserve">init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
+    <t>init</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
   </si>
   <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../person/name</t>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>../../person/name</t>
   </si>
   <si>
     <t xml:space="preserve">Copy to access from within note</t>
   </si>
   <si>
-    <t xml:space="preserve">person_place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_parent</t>
+    <t>person_place_name</t>
+  </si>
+  <si>
+    <t>../name</t>
+  </si>
+  <si>
+    <t>person_parent</t>
   </si>
   <si>
     <t xml:space="preserve">Current Place</t>
@@ -234,22 +228,22 @@
     <t xml:space="preserve">db-object hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${parent}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>${parent}</t>
+  </si>
+  <si>
+    <t>hidden</t>
   </si>
   <si>
     <t xml:space="preserve">Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_place</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_place</t>
   </si>
   <si>
     <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
@@ -273,7 +267,7 @@
     <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
-    <t xml:space="preserve">change_parent</t>
+    <t>change_parent</t>
   </si>
   <si>
     <t xml:space="preserve">Would you like to move them to another place?</t>
@@ -294,16 +288,16 @@
     <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal-compact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
+    <t>columns-pack</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">edited_place_type</t>
+    <t>edited_place_type</t>
   </si>
   <si>
     <t xml:space="preserve">Search for place by</t>
@@ -327,10 +321,10 @@
     <t xml:space="preserve">selected(${change_parent}, 'true')</t>
   </si>
   <si>
-    <t xml:space="preserve">db:district_hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_district_hospital</t>
+    <t>db:district_hospital</t>
+  </si>
+  <si>
+    <t>id_district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Select Health Facillity</t>
@@ -360,10 +354,10 @@
     <t xml:space="preserve">District Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">db:health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_health_center</t>
+    <t>db:health_center</t>
+  </si>
+  <si>
+    <t>id_health_center</t>
   </si>
   <si>
     <t xml:space="preserve">Select Area</t>
@@ -390,10 +384,10 @@
     <t xml:space="preserve">Health Center</t>
   </si>
   <si>
-    <t xml:space="preserve">db:clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_clinic</t>
+    <t>db:clinic</t>
+  </si>
+  <si>
+    <t>id_clinic</t>
   </si>
   <si>
     <t xml:space="preserve">Select Household</t>
@@ -417,10 +411,10 @@
     <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person</t>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">Edit Person</t>
@@ -444,13 +438,13 @@
     <t xml:space="preserve">Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
   </si>
   <si>
-    <t xml:space="preserve">parent</t>
+    <t>parent</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
   </si>
   <si>
-    <t xml:space="preserve">_id</t>
+    <t>_id</t>
   </si>
   <si>
     <t xml:space="preserve">Cannot change</t>
@@ -459,22 +453,22 @@
     <t xml:space="preserve">Full name</t>
   </si>
   <si>
-    <t xml:space="preserve">नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short_name</t>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>short_name</t>
   </si>
   <si>
     <t xml:space="preserve">Short name</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">string-length(.) &lt;= 10</t>
@@ -486,7 +480,7 @@
     <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
-    <t xml:space="preserve">date_of_birth</t>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth</t>
@@ -507,31 +501,31 @@
     <t xml:space="preserve">Date de naissance</t>
   </si>
   <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth_method</t>
+    <t>../ephemeral_dob/dob_iso</t>
+  </si>
+  <si>
+    <t>date_of_birth_method</t>
   </si>
   <si>
     <t xml:space="preserve">Method to select date of birth</t>
   </si>
   <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(../dob_method,'approx'))</t>
+    <t>../ephemeral_dob/dob_method</t>
+  </si>
+  <si>
+    <t>ephemeral_dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dob_calendar</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
     <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
@@ -540,22 +534,22 @@
     <t xml:space="preserve">Date must be before today</t>
   </si>
   <si>
-    <t xml:space="preserve">age_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Age**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../dob_method,'approx')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
+    <t>age_label</t>
+  </si>
+  <si>
+    <t>**Age**</t>
+  </si>
+  <si>
+    <t>selected(../dob_method,'approx')</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
@@ -564,10 +558,10 @@
     <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
-    <t xml:space="preserve">age_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
@@ -579,22 +573,22 @@
     <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE_THIS_LINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_approx</t>
+    <t>dob_method</t>
+  </si>
+  <si>
+    <t>DELETE_THIS_LINE</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
   </si>
   <si>
     <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_raw</t>
+    <t>dob_raw</t>
   </si>
   <si>
     <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
@@ -602,13 +596,13 @@
 ../dob_approx)</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(../dob_raw,"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_debug</t>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>dob_debug</t>
   </si>
   <si>
     <t xml:space="preserve">DOB Approx: ${dob_approx}
@@ -616,10 +610,10 @@
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number</t>
@@ -637,10 +631,10 @@
     <t xml:space="preserve">फोन नम्बर </t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true()</t>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>true()</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
@@ -652,7 +646,7 @@
     <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">phone_alternate</t>
+    <t>phone_alternate</t>
   </si>
   <si>
     <t xml:space="preserve">Alternate Phone Number</t>
@@ -676,46 +670,46 @@
     <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लिंग</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>लिंग</t>
   </si>
   <si>
     <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve">Jinsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
+    <t>Jinsia</t>
+  </si>
+  <si>
+    <t>Sexe</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भूमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role_other</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>भूमिका</t>
+  </si>
+  <si>
+    <t>Peran</t>
+  </si>
+  <si>
+    <t>Kazi</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>role_other</t>
   </si>
   <si>
     <t xml:space="preserve">Specify other</t>
@@ -739,7 +733,7 @@
     <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
-    <t xml:space="preserve">external_id</t>
+    <t>external_id</t>
   </si>
   <si>
     <t xml:space="preserve">External ID</t>
@@ -760,187 +754,187 @@
     <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नोट्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maelezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">टिप्पणी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/facility_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हाँ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>नोट्स</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Maelezo</t>
+  </si>
+  <si>
+    <t>टिप्पणी</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created_by_person_uuid</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid</t>
+  </si>
+  <si>
+    <t>last_edited_by</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/name</t>
+  </si>
+  <si>
+    <t>last_edited_by_person_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/contact_id</t>
+  </si>
+  <si>
+    <t>last_edited_by_place_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/facility_id</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Ndiyo</t>
+  </si>
+  <si>
+    <t>हो</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्त्री</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwanamke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Femme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरूष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwaamume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरुष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boy_girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लड़की</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msichana</t>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Siyo</t>
+  </si>
+  <si>
+    <t>होइन</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>male_female</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>स्त्री</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>mwanamke</t>
+  </si>
+  <si>
+    <t>महिला</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>पुरूष</t>
+  </si>
+  <si>
+    <t>Pria</t>
+  </si>
+  <si>
+    <t>mwaamume</t>
+  </si>
+  <si>
+    <t>पुरुष</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>boy_girl</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>लड़की</t>
+  </si>
+  <si>
+    <t>Gadis</t>
+  </si>
+  <si>
+    <t>Msichana</t>
   </si>
   <si>
     <t xml:space="preserve">छोरी </t>
   </si>
   <si>
-    <t xml:space="preserve">Fille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लड़का</t>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>लड़का</t>
   </si>
   <si>
     <t xml:space="preserve">Anak laki-laki </t>
   </si>
   <si>
-    <t xml:space="preserve">Kijana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छोरा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garçon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
+    <t>Kijana</t>
+  </si>
+  <si>
+    <t>छोरा</t>
+  </si>
+  <si>
+    <t>Garçon</t>
+  </si>
+  <si>
+    <t>select_dob_method</t>
+  </si>
+  <si>
+    <t>approx</t>
   </si>
   <si>
     <t xml:space="preserve">Date unknown</t>
@@ -961,19 +955,19 @@
     <t xml:space="preserve">Date de naissance inconnue</t>
   </si>
   <si>
-    <t xml:space="preserve">roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>chw</t>
+  </si>
+  <si>
+    <t>CHW</t>
   </si>
   <si>
     <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
-    <t xml:space="preserve">Kader</t>
+    <t>Kader</t>
   </si>
   <si>
     <t xml:space="preserve">Mhudumu wa afya</t>
@@ -982,10 +976,10 @@
     <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
-    <t xml:space="preserve">ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_supervisor</t>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>chw_supervisor</t>
   </si>
   <si>
     <t xml:space="preserve">CHW Supervisor</t>
@@ -1006,25 +1000,25 @@
     <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
-    <t xml:space="preserve">nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नर्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muuguzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>नर्स</t>
+  </si>
+  <si>
+    <t>Perawat</t>
+  </si>
+  <si>
+    <t>muuguzi</t>
+  </si>
+  <si>
+    <t>Infirmier</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
   <si>
     <t xml:space="preserve">Facility Manager</t>
@@ -1045,70 +1039,70 @@
     <t xml:space="preserve">Personnel médical</t>
   </si>
   <si>
-    <t xml:space="preserve">patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Patient</t>
   </si>
   <si>
     <t xml:space="preserve">मरीज़ </t>
   </si>
   <si>
-    <t xml:space="preserve">Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mgonjwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बिरामी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_hospital</t>
+    <t>Pasien</t>
+  </si>
+  <si>
+    <t>Mgonjwa</t>
+  </si>
+  <si>
+    <t>बिरामी</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>अन्य</t>
+  </si>
+  <si>
+    <t>Lain</t>
+  </si>
+  <si>
+    <t>Ingine</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>place_type</t>
+  </si>
+  <si>
+    <t>district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">ज़िला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
+    <t>ज़िला</t>
+  </si>
+  <si>
+    <t>Kabupaten</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>health_center</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t xml:space="preserve">स्वास्थ्य केंद्र</t>
@@ -1126,125 +1120,96 @@
     <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
-    <t xml:space="preserve">clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्षेत्र</t>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact:person:edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t>Eneo</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>contact:person:edit</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <b/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Inherit"/>
       <color rgb="FF212121"/>
-      <name val="Inherit"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1311,12 +1276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1324,315 +1289,626 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4CCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF212121"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="I28" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
-      <selection pane="topRight" activeCell="N43" activeCellId="0" sqref="N43"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="N43" activeCellId="0" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="36.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="31" style="0" width="8.7"/>
+    <col customWidth="1" min="1" max="1" style="0" width="16.289999999999999"/>
+    <col customWidth="1" min="2" max="2" style="0" width="19.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="61.140000000000001"/>
+    <col customWidth="1" min="4" max="4" style="0" width="51"/>
+    <col customWidth="1" min="5" max="5" style="0" width="49.57"/>
+    <col customWidth="1" min="6" max="6" style="0" width="34.710000000000001"/>
+    <col customWidth="1" min="7" max="7" style="0" width="29.57"/>
+    <col customWidth="1" min="8" max="8" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="9" max="9" style="0" width="23.149999999999999"/>
+    <col customWidth="1" min="10" max="10" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="11" max="11" style="0" width="14.57"/>
+    <col customWidth="1" min="12" max="12" style="0" width="19.57"/>
+    <col customWidth="1" min="13" max="13" style="0" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="20" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="21" max="21" style="0" width="15.43"/>
+    <col customWidth="1" min="22" max="22" style="0" width="36.700000000000003"/>
+    <col customWidth="1" min="23" max="23" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="24" max="24" style="0" width="19.710000000000001"/>
+    <col customWidth="1" min="25" max="25" style="0" width="19.43"/>
+    <col customWidth="1" min="26" max="26" style="0" width="12.289999999999999"/>
+    <col customWidth="1" min="27" max="27" style="0" width="12.859999999999999"/>
+    <col customWidth="1" min="28" max="28" style="0" width="26"/>
+    <col customWidth="1" min="29" max="29" style="0" width="12"/>
+    <col customWidth="1" min="30" max="30" style="0" width="12.140000000000001"/>
+    <col customWidth="1" min="31" max="44" style="0" width="8.6999999999999993"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +2006,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +2070,7 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -1856,7 +2132,7 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -1918,7 +2194,7 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -1980,7 +2256,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -2042,7 +2318,7 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -2090,7 +2366,7 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2414,7 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -2159,7 +2435,7 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
@@ -2225,7 +2501,7 @@
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="20" t="s">
         <v>60</v>
       </c>
@@ -2279,7 +2555,7 @@
       <c r="AQ11" s="18"/>
       <c r="AR11" s="18"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>60</v>
       </c>
@@ -2331,7 +2607,7 @@
       <c r="AQ12" s="18"/>
       <c r="AR12" s="18"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2667,7 @@
       <c r="AQ13" s="18"/>
       <c r="AR13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -2457,7 +2733,7 @@
       <c r="AQ14" s="18"/>
       <c r="AR14" s="18"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
@@ -2521,7 +2797,7 @@
       <c r="AQ15" s="18"/>
       <c r="AR15" s="18"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>74</v>
       </c>
@@ -2583,7 +2859,7 @@
       <c r="AQ16" s="18"/>
       <c r="AR16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="20" t="s">
         <v>82</v>
       </c>
@@ -2613,7 +2889,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="18"/>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="21" t="s">
         <v>90</v>
       </c>
       <c r="M17" s="18"/>
@@ -2651,7 +2927,7 @@
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>92</v>
       </c>
@@ -2683,7 +2959,7 @@
       <c r="K18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="21" t="s">
         <v>90</v>
       </c>
       <c r="M18" s="18"/>
@@ -2719,7 +2995,7 @@
       <c r="AQ18" s="18"/>
       <c r="AR18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="20" t="s">
         <v>101</v>
       </c>
@@ -2789,7 +3065,7 @@
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>112</v>
       </c>
@@ -2859,7 +3135,7 @@
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="20" t="s">
         <v>122</v>
       </c>
@@ -2929,7 +3205,7 @@
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>56</v>
       </c>
@@ -2954,30 +3230,30 @@
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
       <c r="AD22" s="18"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="22"/>
@@ -2998,7 +3274,7 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
@@ -3064,7 +3340,7 @@
       <c r="AQ24" s="18"/>
       <c r="AR24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="20" t="s">
         <v>60</v>
       </c>
@@ -3078,11 +3354,11 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="21"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -3093,7 +3369,7 @@
       <c r="V25" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W25" s="21"/>
+      <c r="W25" s="18"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
@@ -3101,22 +3377,22 @@
       <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="18"/>
-      <c r="AE25" s="21"/>
+      <c r="AE25" s="18"/>
       <c r="AF25" s="18"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="21"/>
-      <c r="AK25" s="21"/>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="21"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>72</v>
       </c>
@@ -3182,7 +3458,7 @@
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="20" t="s">
         <v>72</v>
       </c>
@@ -3250,7 +3526,7 @@
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3590,7 @@
       <c r="AQ28" s="18"/>
       <c r="AR28" s="18"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
@@ -3374,7 +3650,7 @@
       <c r="AQ29" s="18"/>
       <c r="AR29" s="18"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="20" t="s">
         <v>60</v>
       </c>
@@ -3440,7 +3716,7 @@
       <c r="AQ30" s="18"/>
       <c r="AR30" s="18"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="20" t="s">
         <v>60</v>
       </c>
@@ -3494,7 +3770,7 @@
       <c r="AQ31" s="18"/>
       <c r="AR31" s="18"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>32</v>
       </c>
@@ -3546,7 +3822,7 @@
       <c r="AQ32" s="18"/>
       <c r="AR32" s="18"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="20" t="s">
         <v>166</v>
       </c>
@@ -3608,7 +3884,7 @@
       <c r="AQ33" s="18"/>
       <c r="AR33" s="18"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="20" t="s">
         <v>74</v>
       </c>
@@ -3662,7 +3938,7 @@
       <c r="AQ34" s="18"/>
       <c r="AR34" s="18"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="20" t="s">
         <v>175</v>
       </c>
@@ -3722,7 +3998,7 @@
       <c r="AQ35" s="18"/>
       <c r="AR35" s="18"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="20" t="s">
         <v>175</v>
       </c>
@@ -3780,7 +4056,7 @@
       <c r="AQ36" s="18"/>
       <c r="AR36" s="18"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="20" t="s">
         <v>184</v>
       </c>
@@ -3798,7 +4074,7 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="21" t="s">
         <v>187</v>
       </c>
       <c r="M37" s="18"/>
@@ -3834,7 +4110,7 @@
       <c r="AQ37" s="18"/>
       <c r="AR37" s="18"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="20" t="s">
         <v>60</v>
       </c>
@@ -3886,7 +4162,7 @@
       <c r="AQ38" s="18"/>
       <c r="AR38" s="18"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="20" t="s">
         <v>60</v>
       </c>
@@ -3938,7 +4214,7 @@
       <c r="AQ39" s="18"/>
       <c r="AR39" s="18"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="20" t="s">
         <v>60</v>
       </c>
@@ -3990,7 +4266,7 @@
       <c r="AQ40" s="18"/>
       <c r="AR40" s="18"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="20" t="s">
         <v>74</v>
       </c>
@@ -4044,7 +4320,7 @@
       <c r="AQ41" s="18"/>
       <c r="AR41" s="18"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -4092,7 +4368,7 @@
       <c r="AQ42" s="18"/>
       <c r="AR42" s="18"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="20" t="s">
         <v>196</v>
       </c>
@@ -4162,7 +4438,7 @@
       <c r="AQ43" s="18"/>
       <c r="AR43" s="18"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="20" t="s">
         <v>196</v>
       </c>
@@ -4232,7 +4508,7 @@
       <c r="AQ44" s="18"/>
       <c r="AR44" s="18"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="20" t="s">
         <v>215</v>
       </c>
@@ -4260,7 +4536,7 @@
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="21" t="s">
         <v>187</v>
       </c>
       <c r="M45" s="18"/>
@@ -4296,7 +4572,7 @@
       <c r="AQ45" s="18"/>
       <c r="AR45" s="18"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="20" t="s">
         <v>222</v>
       </c>
@@ -4322,11 +4598,11 @@
       <c r="I46" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
-      <c r="N46" s="21"/>
+      <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
@@ -4335,30 +4611,30 @@
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
       <c r="V46" s="18"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="18"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="21"/>
-      <c r="AI46" s="21"/>
-      <c r="AJ46" s="21"/>
-      <c r="AK46" s="21"/>
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
-      <c r="AN46" s="21"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="18"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>37</v>
       </c>
@@ -4392,7 +4668,7 @@
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
-      <c r="N47" s="21"/>
+      <c r="N47" s="18"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
@@ -4401,7 +4677,7 @@
       <c r="T47" s="18"/>
       <c r="U47" s="18"/>
       <c r="V47" s="18"/>
-      <c r="W47" s="21"/>
+      <c r="W47" s="18"/>
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
@@ -4409,22 +4685,22 @@
       <c r="AB47" s="18"/>
       <c r="AC47" s="18"/>
       <c r="AD47" s="18"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21"/>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21"/>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="18"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>37</v>
       </c>
@@ -4463,30 +4739,30 @@
       <c r="T48" s="18"/>
       <c r="U48" s="18"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
       <c r="AC48" s="18"/>
       <c r="AD48" s="18"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
-      <c r="AI48" s="21"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="21"/>
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
-      <c r="AN48" s="21"/>
-      <c r="AO48" s="21"/>
-      <c r="AP48" s="21"/>
-      <c r="AQ48" s="21"/>
-      <c r="AR48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>37</v>
       </c>
@@ -4527,30 +4803,30 @@
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
       <c r="V49" s="18"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
       <c r="AA49" s="18"/>
       <c r="AB49" s="18"/>
       <c r="AC49" s="18"/>
       <c r="AD49" s="18"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
-      <c r="AH49" s="21"/>
-      <c r="AI49" s="21"/>
-      <c r="AJ49" s="21"/>
-      <c r="AK49" s="21"/>
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
-      <c r="AN49" s="21"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>32</v>
       </c>
@@ -4591,30 +4867,30 @@
       <c r="T50" s="18"/>
       <c r="U50" s="18"/>
       <c r="V50" s="18"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18"/>
       <c r="AD50" s="18"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="20" t="s">
         <v>72</v>
       </c>
@@ -4678,7 +4954,7 @@
       <c r="AQ51" s="18"/>
       <c r="AR51" s="18"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="20" t="s">
         <v>72</v>
       </c>
@@ -4742,7 +5018,7 @@
       <c r="AQ52" s="18"/>
       <c r="AR52" s="18"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="20" t="s">
         <v>72</v>
       </c>
@@ -4806,7 +5082,7 @@
       <c r="AQ53" s="18"/>
       <c r="AR53" s="18"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="20" t="s">
         <v>60</v>
       </c>
@@ -4858,7 +5134,7 @@
       <c r="AQ54" s="18"/>
       <c r="AR54" s="18"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="20" t="s">
         <v>60</v>
       </c>
@@ -4910,7 +5186,7 @@
       <c r="AQ55" s="18"/>
       <c r="AR55" s="18"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="20" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +5238,7 @@
       <c r="AQ56" s="18"/>
       <c r="AR56" s="18"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>56</v>
       </c>
@@ -4987,30 +5263,30 @@
       <c r="T57" s="18"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
       <c r="AA57" s="18"/>
       <c r="AB57" s="18"/>
       <c r="AC57" s="18"/>
       <c r="AD57" s="18"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="21"/>
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
-      <c r="AN57" s="21"/>
-      <c r="AO57" s="21"/>
-      <c r="AP57" s="21"/>
-      <c r="AQ57" s="21"/>
-      <c r="AR57" s="21"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>56</v>
       </c>
@@ -5035,66 +5311,63 @@
       <c r="T58" s="18"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
       <c r="AD58" s="18"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="21"/>
-      <c r="AG58" s="21"/>
-      <c r="AH58" s="21"/>
-      <c r="AI58" s="21"/>
-      <c r="AJ58" s="21"/>
-      <c r="AK58" s="21"/>
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
-      <c r="AN58" s="21"/>
-      <c r="AO58" s="21"/>
-      <c r="AP58" s="21"/>
-      <c r="AQ58" s="21"/>
-      <c r="AR58" s="21"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
+    </row>
+    <row r="1048575" ht="12.800000000000001" customHeight="1"/>
+    <row r="1048576" ht="12.800000000000001" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
+    <col customWidth="1" min="2" max="2" style="0" width="9.6999999999999993"/>
+    <col customWidth="1" min="3" max="3" style="0" width="29.57"/>
+    <col customWidth="1" min="4" max="4" style="0" width="27.710000000000001"/>
+    <col customWidth="1" min="5" max="6" style="0" width="26.710000000000001"/>
+    <col customWidth="1" min="7" max="7" style="0" width="39.289999999999999"/>
+    <col customWidth="1" min="8" max="13" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>260</v>
       </c>
@@ -5123,7 +5396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>261</v>
       </c>
@@ -5150,7 +5423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>261</v>
       </c>
@@ -5177,7 +5450,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>275</v>
       </c>
@@ -5204,7 +5477,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="35" t="s">
         <v>275</v>
       </c>
@@ -5231,7 +5504,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>290</v>
       </c>
@@ -5258,7 +5531,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>290</v>
       </c>
@@ -5285,8 +5558,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>303</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -5312,8 +5585,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>311</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -5339,8 +5612,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
         <v>311</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -5366,8 +5639,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
         <v>311</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -5393,8 +5666,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>311</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -5420,14 +5693,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>339</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>340</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -5447,8 +5720,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>311</v>
       </c>
       <c r="B14" s="37" t="s">
@@ -5474,8 +5747,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>351</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -5501,8 +5774,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>351</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -5528,8 +5801,8 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
         <v>351</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -5556,36 +5829,33 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="4" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="2" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="3" max="3" style="0" width="20"/>
+    <col customWidth="1" min="4" max="15" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="16" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>372</v>
       </c>
@@ -5605,1032 +5875,1029 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>378</v>
       </c>
       <c r="C2" s="41" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-15  11-50</v>
-      </c>
-      <c r="D2" s="0" t="s">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-08-24 11-46</v>
+      </c>
+      <c r="D2" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>380</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -528,7 +528,7 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+    <t xml:space="preserve">. &lt;= now()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -1172,10 +1172,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1185,25 +1185,14 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1299,7 +1288,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1365,9 +1354,6 @@
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
@@ -1377,6 +1363,9 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
@@ -1389,35 +1378,15 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
@@ -1428,11 +1397,8 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
@@ -1874,7 +1840,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="N43" activeCellId="0" sqref="N43"/>
     </sheetView>
@@ -2889,7 +2855,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="18"/>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="18" t="s">
         <v>90</v>
       </c>
       <c r="M17" s="18"/>
@@ -2959,7 +2925,7 @@
       <c r="K18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="18" t="s">
         <v>90</v>
       </c>
       <c r="M18" s="18"/>
@@ -3256,7 +3222,7 @@
     <row r="23" ht="14.25" customHeight="1">
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -3290,7 +3256,7 @@
       <c r="E24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>136</v>
       </c>
       <c r="G24" s="18" t="s">
@@ -3626,7 +3592,7 @@
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
-      <c r="X29" s="24" t="s">
+      <c r="X29" s="23" t="s">
         <v>153</v>
       </c>
       <c r="Y29" s="18"/>
@@ -3846,7 +3812,7 @@
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="24" t="s">
         <v>170</v>
       </c>
       <c r="O33" s="18" t="s">
@@ -4074,7 +4040,7 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="21" t="s">
+      <c r="L37" s="18" t="s">
         <v>187</v>
       </c>
       <c r="M37" s="18"/>
@@ -4536,7 +4502,7 @@
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="18" t="s">
         <v>187</v>
       </c>
       <c r="M45" s="18"/>
@@ -5090,7 +5056,7 @@
         <v>254</v>
       </c>
       <c r="C54" s="18"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -5142,7 +5108,7 @@
         <v>256</v>
       </c>
       <c r="C55" s="18"/>
-      <c r="D55" s="23"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -5377,33 +5343,33 @@
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="29" t="s">
         <v>263</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -5424,13 +5390,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="29" t="s">
         <v>269</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -5451,16 +5417,16 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>278</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -5478,13 +5444,13 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="29" t="s">
         <v>284</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -5505,13 +5471,13 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="29" t="s">
         <v>291</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -5532,13 +5498,13 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>297</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -5562,10 +5528,10 @@
       <c r="A8" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="32" t="s">
         <v>305</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -5589,10 +5555,10 @@
       <c r="A9" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="32" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -5616,10 +5582,10 @@
       <c r="A10" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="32" t="s">
         <v>320</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -5643,10 +5609,10 @@
       <c r="A11" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="32" t="s">
         <v>327</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -5670,13 +5636,13 @@
       <c r="A12" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="30" t="s">
         <v>334</v>
       </c>
       <c r="E12" s="14" t="s">
@@ -5724,10 +5690,10 @@
       <c r="A14" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="32" t="s">
         <v>346</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -5751,10 +5717,10 @@
       <c r="A15" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="32" t="s">
         <v>353</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -5778,10 +5744,10 @@
       <c r="A16" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="32" t="s">
         <v>360</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -5805,13 +5771,13 @@
       <c r="A17" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="33" t="s">
         <v>368</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -5856,22 +5822,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5882,9 +5848,9 @@
       <c r="B2" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="41" t="str">
+      <c r="C2" s="34" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-08-24 11-46</v>
+        <v xml:space="preserve">2022-09-26 12-17</v>
       </c>
       <c r="D2" t="s">
         <v>379</v>

--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -1,144 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="385">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint_message::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::ne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint::fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t xml:space="preserve">begin group</t>
   </si>
   <si>
-    <t xml:space="preserve">inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_id</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>false()</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">Contact ID of the logged in user</t>
@@ -150,28 +144,25 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Identifiant de l'utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">facility_id</t>
+    <t>facility_id</t>
   </si>
   <si>
     <t xml:space="preserve">Place ID of the logged in user</t>
@@ -180,21 +171,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">लॉग इन यूज़र के स्थान का </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
@@ -207,21 +195,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
@@ -243,40 +228,40 @@
     <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom</t>
+    <t>Nom</t>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
   </si>
   <si>
-    <t xml:space="preserve">init</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
+    <t>init</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
   </si>
   <si>
-    <t xml:space="preserve">calculate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../person/name</t>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>../../person/name</t>
   </si>
   <si>
     <t xml:space="preserve">Copy to access from within note</t>
   </si>
   <si>
-    <t xml:space="preserve">person_place_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person_parent</t>
+    <t>person_place_name</t>
+  </si>
+  <si>
+    <t>../name</t>
+  </si>
+  <si>
+    <t>person_parent</t>
   </si>
   <si>
     <t xml:space="preserve">Current Place</t>
@@ -288,22 +273,22 @@
     <t xml:space="preserve">db-object hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${parent}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>${parent}</t>
+  </si>
+  <si>
+    <t>hidden</t>
   </si>
   <si>
     <t xml:space="preserve">Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note_place</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>note_place</t>
   </si>
   <si>
     <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
@@ -312,38 +297,32 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">${person_name}&amp;nbsp;</t>
+      <t>${person_name}&amp;nbsp;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">अब </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">**${person_place_name}** </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">में है</t>
     </r>
@@ -358,38 +337,32 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${person_name}&amp;nbsp; </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">हाल यो  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">**${person_place_name}**</t>
+      <t>**${person_place_name}**</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">सँग छ</t>
     </r>
@@ -401,7 +374,7 @@
     <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
-    <t xml:space="preserve">change_parent</t>
+    <t>change_parent</t>
   </si>
   <si>
     <t xml:space="preserve">Would you like to move them to another place?</t>
@@ -410,21 +383,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t>?</t>
     </r>
   </si>
   <si>
@@ -437,37 +407,34 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t>?</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
-    <t xml:space="preserve">columns-pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
+    <t>columns-pack</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">edited_place_type</t>
+    <t>edited_place_type</t>
   </si>
   <si>
     <t xml:space="preserve">Search for place by</t>
@@ -491,10 +458,10 @@
     <t xml:space="preserve">selected(${change_parent}, 'true')</t>
   </si>
   <si>
-    <t xml:space="preserve">db:district_hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_district_hospital</t>
+    <t>db:district_hospital</t>
+  </si>
+  <si>
+    <t>id_district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Select Health Facillity</t>
@@ -524,10 +491,10 @@
     <t xml:space="preserve">District Hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">db:health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_health_center</t>
+    <t>db:health_center</t>
+  </si>
+  <si>
+    <t>id_health_center</t>
   </si>
   <si>
     <t xml:space="preserve">Select Area</t>
@@ -554,10 +521,10 @@
     <t xml:space="preserve">Health Center</t>
   </si>
   <si>
-    <t xml:space="preserve">db:clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_clinic</t>
+    <t>db:clinic</t>
+  </si>
+  <si>
+    <t>id_clinic</t>
   </si>
   <si>
     <t xml:space="preserve">Select Household</t>
@@ -581,10 +548,10 @@
     <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person</t>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">Edit Person</t>
@@ -608,13 +575,13 @@
     <t xml:space="preserve">Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
   </si>
   <si>
-    <t xml:space="preserve">parent</t>
+    <t>parent</t>
   </si>
   <si>
     <t xml:space="preserve">coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
   </si>
   <si>
-    <t xml:space="preserve">_id</t>
+    <t>_id</t>
   </si>
   <si>
     <t xml:space="preserve">Cannot change</t>
@@ -623,22 +590,22 @@
     <t xml:space="preserve">Full name</t>
   </si>
   <si>
-    <t xml:space="preserve">नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short_name</t>
+    <t>नाम</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>short_name</t>
   </si>
   <si>
     <t xml:space="preserve">Short name</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">string-length(.) &lt;= 10</t>
@@ -650,7 +617,7 @@
     <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
-    <t xml:space="preserve">date_of_birth</t>
+    <t>date_of_birth</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth</t>
@@ -671,31 +638,31 @@
     <t xml:space="preserve">Date de naissance</t>
   </si>
   <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_of_birth_method</t>
+    <t>../ephemeral_dob/dob_iso</t>
+  </si>
+  <si>
+    <t>date_of_birth_method</t>
   </si>
   <si>
     <t xml:space="preserve">Method to select date of birth</t>
   </si>
   <si>
-    <t xml:space="preserve">../ephemeral_dob/dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephemeral_dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(../dob_method,'approx'))</t>
+    <t>../ephemeral_dob/dob_method</t>
+  </si>
+  <si>
+    <t>ephemeral_dob</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dob_calendar</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
     <t xml:space="preserve">. &lt;= now()</t>
@@ -704,22 +671,22 @@
     <t xml:space="preserve">Date must be before today</t>
   </si>
   <si>
-    <t xml:space="preserve">age_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Age**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../dob_method,'approx')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age_years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Years</t>
+    <t>age_label</t>
+  </si>
+  <si>
+    <t>**Age**</t>
+  </si>
+  <si>
+    <t>selected(../dob_method,'approx')</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>age_years</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
@@ -728,10 +695,10 @@
     <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
-    <t xml:space="preserve">age_months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months</t>
+    <t>age_months</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
@@ -743,22 +710,22 @@
     <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE_THIS_LINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_approx</t>
+    <t>dob_method</t>
+  </si>
+  <si>
+    <t>DELETE_THIS_LINE</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
   </si>
   <si>
     <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_raw</t>
+    <t>dob_raw</t>
   </si>
   <si>
     <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
@@ -766,13 +733,13 @@
 ../dob_approx)</t>
   </si>
   <si>
-    <t xml:space="preserve">dob_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format-date-time(../dob_raw,"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_debug</t>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>format-date-time(../dob_raw,"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>dob_debug</t>
   </si>
   <si>
     <t xml:space="preserve">DOB Approx: ${dob_approx}
@@ -780,10 +747,10 @@
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t xml:space="preserve">tel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number</t>
@@ -801,10 +768,10 @@
     <t xml:space="preserve">फोन नम्बर </t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true()</t>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>true()</t>
   </si>
   <si>
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
@@ -813,76 +780,64 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">जिसमें एक प्लस साइन </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(+) </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">और देश कोड शामिल है। उदाहरण के लिए</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: +914712345678</t>
     </r>
@@ -891,7 +846,7 @@
     <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +254712345678</t>
   </si>
   <si>
-    <t xml:space="preserve">phone_alternate</t>
+    <t>phone_alternate</t>
   </si>
   <si>
     <t xml:space="preserve">Alternate Phone Number</t>
@@ -915,46 +870,46 @@
     <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लिंग</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>लिंग</t>
   </si>
   <si>
     <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve">Jinsia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexe</t>
+    <t>Jinsia</t>
+  </si>
+  <si>
+    <t>Sexe</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">भूमिका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role_other</t>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>भूमिका</t>
+  </si>
+  <si>
+    <t>Peran</t>
+  </si>
+  <si>
+    <t>Kazi</t>
+  </si>
+  <si>
+    <t>Rôle</t>
+  </si>
+  <si>
+    <t>role_other</t>
   </si>
   <si>
     <t xml:space="preserve">Specify other</t>
@@ -978,7 +933,7 @@
     <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
-    <t xml:space="preserve">external_id</t>
+    <t>external_id</t>
   </si>
   <si>
     <t xml:space="preserve">External ID</t>
@@ -987,21 +942,18 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">बाहरी </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
@@ -1014,217 +966,211 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Droid Sans Devanagari"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">बहिरी </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
+      <t>ID</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नोट्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maelezo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">टिप्पणी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create_user_for_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a user for this contact</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>नोट्स</t>
+  </si>
+  <si>
+    <t>Catatan</t>
+  </si>
+  <si>
+    <t>Maelezo</t>
+  </si>
+  <si>
+    <t>टिप्पणी</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>create_user_for_contact</t>
   </si>
   <si>
     <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
   </si>
   <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">created_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by_person_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/contact_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_edited_by_place_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/user/facility_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हाँ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">हो</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>created_by_person_uuid</t>
+  </si>
+  <si>
+    <t>created_by_place_uuid</t>
+  </si>
+  <si>
+    <t>last_edited_by</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/name</t>
+  </si>
+  <si>
+    <t>last_edited_by_person_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/contact_id</t>
+  </si>
+  <si>
+    <t>last_edited_by_place_uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/facility_id</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>Iya</t>
+  </si>
+  <si>
+    <t>Ndiyo</t>
+  </si>
+  <si>
+    <t>हो</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">होइन</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्त्री</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwanamke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Femme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरूष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwaamume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरुष</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boy_girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लड़की</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msichana</t>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Siyo</t>
+  </si>
+  <si>
+    <t>होइन</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>male_female</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>स्त्री</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>mwanamke</t>
+  </si>
+  <si>
+    <t>महिला</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>पुरूष</t>
+  </si>
+  <si>
+    <t>Pria</t>
+  </si>
+  <si>
+    <t>mwaamume</t>
+  </si>
+  <si>
+    <t>पुरुष</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>boy_girl</t>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>लड़की</t>
+  </si>
+  <si>
+    <t>Gadis</t>
+  </si>
+  <si>
+    <t>Msichana</t>
   </si>
   <si>
     <t xml:space="preserve">छोरी </t>
   </si>
   <si>
-    <t xml:space="preserve">Fille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लड़का</t>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>लड़का</t>
   </si>
   <si>
     <t xml:space="preserve">Anak laki-laki </t>
   </si>
   <si>
-    <t xml:space="preserve">Kijana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">छोरा</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garçon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_dob_method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approx</t>
+    <t>Kijana</t>
+  </si>
+  <si>
+    <t>छोरा</t>
+  </si>
+  <si>
+    <t>Garçon</t>
+  </si>
+  <si>
+    <t>select_dob_method</t>
+  </si>
+  <si>
+    <t>approx</t>
   </si>
   <si>
     <t xml:space="preserve">Date unknown</t>
@@ -1245,19 +1191,19 @@
     <t xml:space="preserve">Date de naissance inconnue</t>
   </si>
   <si>
-    <t xml:space="preserve">roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>chw</t>
+  </si>
+  <si>
+    <t>CHW</t>
   </si>
   <si>
     <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
-    <t xml:space="preserve">Kader</t>
+    <t>Kader</t>
   </si>
   <si>
     <t xml:space="preserve">Mhudumu wa afya</t>
@@ -1266,10 +1212,10 @@
     <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
-    <t xml:space="preserve">ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_supervisor</t>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>chw_supervisor</t>
   </si>
   <si>
     <t xml:space="preserve">CHW Supervisor</t>
@@ -1290,25 +1236,25 @@
     <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
-    <t xml:space="preserve">nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नर्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">muuguzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>नर्स</t>
+  </si>
+  <si>
+    <t>Perawat</t>
+  </si>
+  <si>
+    <t>muuguzi</t>
+  </si>
+  <si>
+    <t>Infirmier</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
   <si>
     <t xml:space="preserve">Facility Manager</t>
@@ -1329,70 +1275,70 @@
     <t xml:space="preserve">Personnel médical</t>
   </si>
   <si>
-    <t xml:space="preserve">patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient</t>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Patient</t>
   </si>
   <si>
     <t xml:space="preserve">मरीज़ </t>
   </si>
   <si>
-    <t xml:space="preserve">Pasien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mgonjwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बिरामी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_hospital</t>
+    <t>Pasien</t>
+  </si>
+  <si>
+    <t>Mgonjwa</t>
+  </si>
+  <si>
+    <t>बिरामी</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>अन्य</t>
+  </si>
+  <si>
+    <t>Lain</t>
+  </si>
+  <si>
+    <t>Ingine</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>place_type</t>
+  </si>
+  <si>
+    <t>district_hospital</t>
   </si>
   <si>
     <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">ज़िला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health_center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
+    <t>ज़िला</t>
+  </si>
+  <si>
+    <t>Kabupaten</t>
+  </si>
+  <si>
+    <t>Wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>health_center</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t xml:space="preserve">स्वास्थ्य केंद्र</t>
@@ -1410,115 +1356,90 @@
     <t xml:space="preserve">Centre de santé</t>
   </si>
   <si>
-    <t xml:space="preserve">clinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्षेत्र</t>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>क्षेत्र</t>
   </si>
   <si>
     <t xml:space="preserve">Daerah </t>
   </si>
   <si>
-    <t xml:space="preserve">Eneo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact:person:edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
+    <t>Eneo</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>contact:person:edit</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <b/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Droid Sans Devanagari"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Devanagari"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Droid Sans Devanagari"/>
       <color rgb="FF212121"/>
-      <name val="Droid Sans Devanagari"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1585,12 +1506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1598,299 +1519,612 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFFCE5CD"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4CCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF212121"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C13" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="topRight" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A40" zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B50" activeCellId="0" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="36.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="31" style="0" width="8.7"/>
+    <col customWidth="1" min="1" max="1" style="0" width="16.289999999999999"/>
+    <col customWidth="1" min="2" max="2" style="0" width="19.710000000000001"/>
+    <col customWidth="1" min="3" max="3" style="0" width="61.140000000000001"/>
+    <col customWidth="1" min="4" max="4" style="0" width="51"/>
+    <col customWidth="1" min="5" max="5" style="0" width="49.57"/>
+    <col customWidth="1" min="6" max="6" style="0" width="34.710000000000001"/>
+    <col customWidth="1" min="7" max="7" style="0" width="29.57"/>
+    <col customWidth="1" min="8" max="8" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="9" max="9" style="0" width="23.140000000000001"/>
+    <col customWidth="1" min="10" max="10" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="11" max="11" style="0" width="14.57"/>
+    <col customWidth="1" min="12" max="12" style="0" width="19.57"/>
+    <col customWidth="1" min="13" max="13" style="0" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="20" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="21" max="21" style="0" width="15.43"/>
+    <col customWidth="1" min="22" max="22" style="0" width="36.700000000000003"/>
+    <col customWidth="1" min="23" max="23" style="0" width="8.6999999999999993"/>
+    <col customWidth="1" min="24" max="24" style="0" width="19.710000000000001"/>
+    <col customWidth="1" min="25" max="25" style="0" width="19.43"/>
+    <col customWidth="1" min="26" max="26" style="0" width="12.289999999999999"/>
+    <col customWidth="1" min="27" max="27" style="0" width="12.859999999999999"/>
+    <col customWidth="1" min="28" max="28" style="0" width="26"/>
+    <col customWidth="1" min="29" max="29" style="0" width="12"/>
+    <col customWidth="1" min="30" max="30" style="0" width="12.140000000000001"/>
+    <col customWidth="1" min="31" max="44" style="0" width="8.6999999999999993"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -2052,7 +2286,7 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -2114,7 +2348,7 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2410,7 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -2238,7 +2472,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -2300,7 +2534,7 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -2348,7 +2582,7 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +2630,7 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
@@ -2417,7 +2651,7 @@
       <c r="AC9" s="18"/>
       <c r="AD9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2717,7 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>60</v>
       </c>
@@ -2537,7 +2771,7 @@
       <c r="AQ11" s="19"/>
       <c r="AR11" s="19"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="21" t="s">
         <v>60</v>
       </c>
@@ -2589,7 +2823,7 @@
       <c r="AQ12" s="19"/>
       <c r="AR12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -2649,7 +2883,7 @@
       <c r="AQ13" s="19"/>
       <c r="AR13" s="19"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -2715,7 +2949,7 @@
       <c r="AQ14" s="19"/>
       <c r="AR14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -2779,7 +3013,7 @@
       <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>74</v>
       </c>
@@ -2841,7 +3075,7 @@
       <c r="AQ16" s="19"/>
       <c r="AR16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>82</v>
       </c>
@@ -2909,7 +3143,7 @@
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>92</v>
       </c>
@@ -2977,7 +3211,7 @@
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>101</v>
       </c>
@@ -3047,7 +3281,7 @@
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>112</v>
       </c>
@@ -3117,7 +3351,7 @@
       <c r="AQ20" s="19"/>
       <c r="AR20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>122</v>
       </c>
@@ -3187,7 +3421,7 @@
       <c r="AQ21" s="19"/>
       <c r="AR21" s="19"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>56</v>
       </c>
@@ -3235,7 +3469,7 @@
       <c r="AQ22" s="19"/>
       <c r="AR22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="23"/>
@@ -3256,7 +3490,7 @@
       <c r="AC23" s="18"/>
       <c r="AD23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>32</v>
       </c>
@@ -3322,7 +3556,7 @@
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>60</v>
       </c>
@@ -3374,7 +3608,7 @@
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>72</v>
       </c>
@@ -3440,7 +3674,7 @@
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>72</v>
       </c>
@@ -3508,7 +3742,7 @@
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
@@ -3572,7 +3806,7 @@
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
@@ -3632,7 +3866,7 @@
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>60</v>
       </c>
@@ -3698,7 +3932,7 @@
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>60</v>
       </c>
@@ -3752,7 +3986,7 @@
       <c r="AQ31" s="19"/>
       <c r="AR31" s="19"/>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>32</v>
       </c>
@@ -3804,7 +4038,7 @@
       <c r="AQ32" s="19"/>
       <c r="AR32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>166</v>
       </c>
@@ -3866,7 +4100,7 @@
       <c r="AQ33" s="19"/>
       <c r="AR33" s="19"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>74</v>
       </c>
@@ -3920,7 +4154,7 @@
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>175</v>
       </c>
@@ -3980,7 +4214,7 @@
       <c r="AQ35" s="19"/>
       <c r="AR35" s="19"/>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>175</v>
       </c>
@@ -4038,7 +4272,7 @@
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>184</v>
       </c>
@@ -4092,7 +4326,7 @@
       <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="21" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4378,7 @@
       <c r="AQ38" s="19"/>
       <c r="AR38" s="19"/>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>60</v>
       </c>
@@ -4196,7 +4430,7 @@
       <c r="AQ39" s="19"/>
       <c r="AR39" s="19"/>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
@@ -4248,7 +4482,7 @@
       <c r="AQ40" s="19"/>
       <c r="AR40" s="19"/>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>74</v>
       </c>
@@ -4302,7 +4536,7 @@
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>56</v>
       </c>
@@ -4350,7 +4584,7 @@
       <c r="AQ42" s="19"/>
       <c r="AR42" s="19"/>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="21" t="s">
         <v>196</v>
       </c>
@@ -4420,7 +4654,7 @@
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="21" t="s">
         <v>196</v>
       </c>
@@ -4490,7 +4724,7 @@
       <c r="AQ44" s="19"/>
       <c r="AR44" s="19"/>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>215</v>
       </c>
@@ -4554,7 +4788,7 @@
       <c r="AQ45" s="19"/>
       <c r="AR45" s="19"/>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="21" t="s">
         <v>222</v>
       </c>
@@ -4616,7 +4850,7 @@
       <c r="AQ46" s="19"/>
       <c r="AR46" s="19"/>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="21" t="s">
         <v>37</v>
       </c>
@@ -4682,7 +4916,7 @@
       <c r="AQ47" s="19"/>
       <c r="AR47" s="19"/>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="21" t="s">
         <v>37</v>
       </c>
@@ -4744,7 +4978,7 @@
       <c r="AQ48" s="19"/>
       <c r="AR48" s="19"/>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>37</v>
       </c>
@@ -4808,16 +5042,14 @@
       <c r="AQ49" s="19"/>
       <c r="AR49" s="19"/>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>251</v>
-      </c>
+      <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
@@ -4837,7 +5069,7 @@
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
       <c r="V50" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
@@ -4862,12 +5094,12 @@
       <c r="AQ50" s="19"/>
       <c r="AR50" s="19"/>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>34</v>
@@ -4926,12 +5158,12 @@
       <c r="AQ51" s="19"/>
       <c r="AR51" s="19"/>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>34</v>
@@ -4990,12 +5222,12 @@
       <c r="AQ52" s="19"/>
       <c r="AR52" s="19"/>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>34</v>
@@ -5054,12 +5286,12 @@
       <c r="AQ53" s="19"/>
       <c r="AR53" s="19"/>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>34</v>
@@ -5118,12 +5350,12 @@
       <c r="AQ54" s="19"/>
       <c r="AR54" s="19"/>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="24"/>
@@ -5145,7 +5377,7 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
@@ -5170,12 +5402,12 @@
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="24"/>
@@ -5197,7 +5429,7 @@
       <c r="T56" s="19"/>
       <c r="U56" s="19"/>
       <c r="V56" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W56" s="19"/>
       <c r="X56" s="19"/>
@@ -5222,12 +5454,12 @@
       <c r="AQ56" s="19"/>
       <c r="AR56" s="19"/>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
@@ -5249,7 +5481,7 @@
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
       <c r="V57" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W57" s="19"/>
       <c r="X57" s="19"/>
@@ -5274,7 +5506,7 @@
       <c r="AQ57" s="19"/>
       <c r="AR57" s="19"/>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="21" t="s">
         <v>56</v>
       </c>
@@ -5322,7 +5554,7 @@
       <c r="AQ58" s="19"/>
       <c r="AR58" s="19"/>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="21" t="s">
         <v>56</v>
       </c>
@@ -5370,44 +5602,41 @@
       <c r="AQ59" s="19"/>
       <c r="AR59" s="19"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" ht="12.800000000000001" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
+    <col customWidth="1" min="2" max="2" style="0" width="9.6999999999999993"/>
+    <col customWidth="1" min="3" max="3" style="0" width="29.57"/>
+    <col customWidth="1" min="4" max="4" style="0" width="27.710000000000001"/>
+    <col customWidth="1" min="5" max="6" style="0" width="26.710000000000001"/>
+    <col customWidth="1" min="7" max="7" style="0" width="39.289999999999999"/>
+    <col customWidth="1" min="8" max="13" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -5434,1514 +5663,1508 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>270</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="32" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>276</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="30" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="C4" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>284</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="32" t="s">
         <v>290</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>291</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="30" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>298</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>304</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>312</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>320</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="E10" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>327</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="E11" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>333</v>
-      </c>
       <c r="G11" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="E12" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>340</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="E13" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="32" t="s">
         <v>346</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>347</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>314</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>313</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>352</v>
-      </c>
       <c r="G14" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="E15" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>360</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="E16" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>373</v>
-      </c>
       <c r="G17" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="4" style="0" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="15.14"/>
+    <col customWidth="1" min="1" max="2" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="3" max="3" style="0" width="20"/>
+    <col customWidth="1" min="4" max="15" style="0" width="7.7000000000000002"/>
+    <col customWidth="1" min="16" max="26" style="0" width="15.140000000000001"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="37" t="str">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2023-01-06 10-11</v>
+      </c>
+      <c r="D2" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-12-27  16-45</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" t="s">
         <v>383</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1"/>
+    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="10" ht="14.25" customHeight="1"/>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>type</t>
   </si>
@@ -141,22 +141,7 @@
     <t xml:space="preserve">Mawasiliano ya mtumizi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
   </si>
   <si>
     <t xml:space="preserve">Identifiant de l'utilisateur</t>
@@ -168,22 +153,7 @@
     <t xml:space="preserve">Place ID of the logged in user</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">लॉग इन यूज़र के स्थान का </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t xml:space="preserve">लॉग इन यूज़र के स्थान का ID</t>
   </si>
   <si>
     <t xml:space="preserve">ID Tempat dari login user</t>
@@ -192,22 +162,7 @@
     <t xml:space="preserve">Mahali ya kitambulisho ya Mtumizi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
   </si>
   <si>
     <t xml:space="preserve">Identifiant du centre</t>
@@ -294,38 +249,7 @@
     <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>${person_name}&amp;nbsp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">अब </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">**${person_place_name}** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">में है</t>
-    </r>
+    <t xml:space="preserve">${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
   </si>
   <si>
     <t xml:space="preserve">${person_name}&amp;nbsp;milik **${person_place_name}**</t>
@@ -334,38 +258,7 @@
     <t xml:space="preserve">${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">${person_name}&amp;nbsp; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">हाल यो  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>**${person_place_name}**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">सँग छ</t>
-    </r>
+    <t xml:space="preserve">${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
   </si>
   <si>
     <t xml:space="preserve">${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
@@ -380,22 +273,7 @@
     <t xml:space="preserve">Would you like to move them to another place?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
   </si>
   <si>
     <t xml:space="preserve">Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
@@ -404,22 +282,7 @@
     <t xml:space="preserve">Ungependa kuwahamisha mahali pengine?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>?</t>
-    </r>
+    <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
   </si>
   <si>
     <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
@@ -777,70 +640,7 @@
     <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">जिसमें एक प्लस साइन </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">(+) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">और देश कोड शामिल है। उदाहरण के लिए</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: +914712345678</t>
-    </r>
+    <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +914712345678</t>
   </si>
   <si>
     <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +254712345678</t>
@@ -939,22 +739,7 @@
     <t xml:space="preserve">External ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">बाहरी </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t xml:space="preserve">बाहरी ID</t>
   </si>
   <si>
     <t xml:space="preserve">Eksternal ID</t>
@@ -963,22 +748,7 @@
     <t xml:space="preserve">Kitambulisho ya nje</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Droid Sans Devanagari"/>
-      </rPr>
-      <t xml:space="preserve">बहिरी </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t xml:space="preserve">बहिरी ID</t>
   </si>
   <si>
     <t xml:space="preserve">Identifiant externe</t>
@@ -1000,12 +770,6 @@
   </si>
   <si>
     <t>multiline</t>
-  </si>
-  <si>
-    <t>create_user_for_contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected( ${role},'chw') or selected( ${role},'chw_supervisor')</t>
   </si>
   <si>
     <t>meta</t>
@@ -1408,10 +1172,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1424,11 +1188,6 @@
       <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Droid Sans Devanagari"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <sz val="11.000000"/>
     </font>
@@ -1437,7 +1196,7 @@
       <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Droid Sans Devanagari"/>
+      <name val="Inherit"/>
       <color rgb="FF212121"/>
       <sz val="11.000000"/>
     </font>
@@ -1529,7 +1288,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1571,9 +1330,6 @@
     <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1598,9 +1354,6 @@
     <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
@@ -1609,13 +1362,16 @@
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
@@ -1633,12 +1389,6 @@
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
       <protection hidden="0" locked="1"/>
@@ -1647,7 +1397,7 @@
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2090,12 +1840,12 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A40" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B50" activeCellId="0" sqref="B50"/>
+      <selection activeCell="N43" activeCellId="0" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="0" width="16.289999999999999"/>
     <col customWidth="1" min="2" max="2" style="0" width="19.710000000000001"/>
@@ -2105,7 +1855,7 @@
     <col customWidth="1" min="6" max="6" style="0" width="34.710000000000001"/>
     <col customWidth="1" min="7" max="7" style="0" width="29.57"/>
     <col customWidth="1" min="8" max="8" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="9" max="9" style="0" width="23.140000000000001"/>
+    <col customWidth="1" min="9" max="9" style="0" width="23.149999999999999"/>
     <col customWidth="1" min="10" max="10" style="0" width="8.6999999999999993"/>
     <col customWidth="1" min="11" max="11" style="0" width="14.57"/>
     <col customWidth="1" min="12" max="12" style="0" width="19.57"/>
@@ -2367,7 +2117,7 @@
       <c r="F4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="12"/>
@@ -2420,7 +2170,7 @@
       <c r="C5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -2429,7 +2179,7 @@
       <c r="F5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H5" s="12"/>
@@ -2482,7 +2232,7 @@
       <c r="C6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -2491,7 +2241,7 @@
       <c r="F6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="12"/>
@@ -2631,2982 +2381,2931 @@
       <c r="AR8" s="12"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="18"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19" t="s">
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19" t="s">
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19" t="s">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19" t="s">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19" t="s">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="19"/>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="19"/>
-      <c r="AN22" s="19"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="19"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="18"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="18"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="s">
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19" t="s">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="19"/>
-      <c r="AN24" s="19"/>
-      <c r="AO24" s="19"/>
-      <c r="AP24" s="19"/>
-      <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19" t="s">
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="19"/>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="19"/>
-      <c r="AO26" s="19"/>
-      <c r="AP26" s="19"/>
-      <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19" t="s">
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="AF27" s="19" t="s">
+      <c r="AF27" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="19"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="19"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="19"/>
-      <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="19"/>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19" t="s">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="25" t="s">
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="19"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="19"/>
-      <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19" t="s">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="19"/>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="19"/>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="19"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="19"/>
-      <c r="AJ31" s="19"/>
-      <c r="AK31" s="19"/>
-      <c r="AL31" s="19"/>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="19"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="19"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18"/>
+      <c r="AN31" s="18"/>
+      <c r="AO31" s="18"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="18"/>
+      <c r="AN32" s="18"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19" t="s">
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19" t="s">
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
-      <c r="AO33" s="19"/>
-      <c r="AP33" s="19"/>
-      <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="19"/>
-      <c r="AE34" s="19"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="19"/>
-      <c r="AJ34" s="19"/>
-      <c r="AK34" s="19"/>
-      <c r="AL34" s="19"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
-      <c r="AP34" s="19"/>
-      <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19" t="s">
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
-      <c r="AP35" s="19"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19" t="s">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
-      <c r="AP36" s="19"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="18"/>
+      <c r="AN36" s="18"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="18"/>
+      <c r="AQ36" s="18"/>
+      <c r="AR36" s="18"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="19"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="18"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="18"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="27" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
-      <c r="AF38" s="19"/>
-      <c r="AG38" s="19"/>
-      <c r="AH38" s="19"/>
-      <c r="AI38" s="19"/>
-      <c r="AJ38" s="19"/>
-      <c r="AK38" s="19"/>
-      <c r="AL38" s="19"/>
-      <c r="AM38" s="19"/>
-      <c r="AN38" s="19"/>
-      <c r="AO38" s="19"/>
-      <c r="AP38" s="19"/>
-      <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="28" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="18"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="18"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="O43" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="P43" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19" t="s">
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
-      <c r="AB43" s="19"/>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="19"/>
-      <c r="AF43" s="19"/>
-      <c r="AG43" s="19"/>
-      <c r="AH43" s="19"/>
-      <c r="AI43" s="19"/>
-      <c r="AJ43" s="19"/>
-      <c r="AK43" s="19"/>
-      <c r="AL43" s="19"/>
-      <c r="AM43" s="19"/>
-      <c r="AN43" s="19"/>
-      <c r="AO43" s="19"/>
-      <c r="AP43" s="19"/>
-      <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="O44" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="P44" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19" t="s">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="19"/>
-      <c r="AQ44" s="19"/>
-      <c r="AR44" s="19"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="18"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
+      <c r="AP44" s="18"/>
+      <c r="AQ44" s="18"/>
+      <c r="AR44" s="18"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="19"/>
-      <c r="AM45" s="19"/>
-      <c r="AN45" s="19"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="19"/>
-      <c r="AQ45" s="19"/>
-      <c r="AR45" s="19"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="18"/>
+      <c r="AM45" s="18"/>
+      <c r="AN45" s="18"/>
+      <c r="AO45" s="18"/>
+      <c r="AP45" s="18"/>
+      <c r="AQ45" s="18"/>
+      <c r="AR45" s="18"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="18"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="18"/>
+      <c r="AQ46" s="18"/>
+      <c r="AR46" s="18"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="19" t="s">
+      <c r="K47" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19"/>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19"/>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="18"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="19"/>
-      <c r="AI48" s="19"/>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="19"/>
-      <c r="AM48" s="19"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="19"/>
-      <c r="AP48" s="19"/>
-      <c r="AQ48" s="19"/>
-      <c r="AR48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19" t="s">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19" t="s">
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19"/>
-      <c r="AM49" s="19"/>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="19"/>
-      <c r="AQ49" s="19"/>
-      <c r="AR49" s="19"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="18"/>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="18"/>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="18"/>
+      <c r="AR52" s="18"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="18"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="19"/>
-      <c r="Z50" s="19"/>
-      <c r="AA50" s="19"/>
-      <c r="AB50" s="19"/>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="19"/>
-      <c r="AF50" s="19"/>
-      <c r="AG50" s="19"/>
-      <c r="AH50" s="19"/>
-      <c r="AI50" s="19"/>
-      <c r="AJ50" s="19"/>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="19"/>
-      <c r="AM50" s="19"/>
-      <c r="AN50" s="19"/>
-      <c r="AO50" s="19"/>
-      <c r="AP50" s="19"/>
-      <c r="AQ50" s="19"/>
-      <c r="AR50" s="19"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
-      <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="19"/>
-      <c r="AQ51" s="19"/>
-      <c r="AR51" s="19"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="19"/>
-      <c r="AF52" s="19"/>
-      <c r="AG52" s="19"/>
-      <c r="AH52" s="19"/>
-      <c r="AI52" s="19"/>
-      <c r="AJ52" s="19"/>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="19"/>
-      <c r="AM52" s="19"/>
-      <c r="AN52" s="19"/>
-      <c r="AO52" s="19"/>
-      <c r="AP52" s="19"/>
-      <c r="AQ52" s="19"/>
-      <c r="AR52" s="19"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="19"/>
-      <c r="AR53" s="19"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="18"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="19"/>
-      <c r="AQ54" s="19"/>
-      <c r="AR54" s="19"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="18"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="19"/>
-      <c r="AN55" s="19"/>
-      <c r="AO55" s="19"/>
-      <c r="AP55" s="19"/>
-      <c r="AQ55" s="19"/>
-      <c r="AR55" s="19"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="18"/>
+      <c r="AJ55" s="18"/>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="18"/>
+      <c r="AR55" s="18"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="19"/>
-      <c r="AB56" s="19"/>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="19"/>
-      <c r="AF56" s="19"/>
-      <c r="AG56" s="19"/>
-      <c r="AH56" s="19"/>
-      <c r="AI56" s="19"/>
-      <c r="AJ56" s="19"/>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="19"/>
-      <c r="AM56" s="19"/>
-      <c r="AN56" s="19"/>
-      <c r="AO56" s="19"/>
-      <c r="AP56" s="19"/>
-      <c r="AQ56" s="19"/>
-      <c r="AR56" s="19"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="18"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="19"/>
-      <c r="AB57" s="19"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="19"/>
-      <c r="AE57" s="19"/>
-      <c r="AF57" s="19"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="19"/>
-      <c r="AI57" s="19"/>
-      <c r="AJ57" s="19"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="19"/>
-      <c r="AM57" s="19"/>
-      <c r="AN57" s="19"/>
-      <c r="AO57" s="19"/>
-      <c r="AP57" s="19"/>
-      <c r="AQ57" s="19"/>
-      <c r="AR57" s="19"/>
+      <c r="A57" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="19"/>
-      <c r="AI58" s="19"/>
-      <c r="AJ58" s="19"/>
-      <c r="AK58" s="19"/>
-      <c r="AL58" s="19"/>
-      <c r="AM58" s="19"/>
-      <c r="AN58" s="19"/>
-      <c r="AO58" s="19"/>
-      <c r="AP58" s="19"/>
-      <c r="AQ58" s="19"/>
-      <c r="AR58" s="19"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="19"/>
-      <c r="AQ59" s="19"/>
-      <c r="AR59" s="19"/>
-    </row>
+      <c r="B58" s="20"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
+    </row>
+    <row r="1048575" ht="12.800000000000001" customHeight="1"/>
     <row r="1048576" ht="12.800000000000001" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5622,7 +5321,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
     <col customWidth="1" min="2" max="2" style="0" width="9.6999999999999993"/>
@@ -5635,13 +5334,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5664,441 +5363,441 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="D2" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="E2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="F2" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="32" t="s">
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="E3" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="F3" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="32" t="s">
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="B4" s="29" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="E4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="F4" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="32" t="s">
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="C5" s="29" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="30" t="s">
+      <c r="D5" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="E5" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="F5" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="G5" s="32" t="s">
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19" t="s">
+      <c r="B6" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="D6" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="F6" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="32" t="s">
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="E7" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="F7" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="D8" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="E8" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="F8" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="E9" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="F9" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="G9" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="E10" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="F10" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>313</v>
-      </c>
-      <c r="B11" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="E11" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="F11" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="G11" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="E12" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="F12" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="s">
         <v>338</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="F13" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19" t="s">
-        <v>342</v>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>313</v>
-      </c>
-      <c r="B14" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="E14" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="F14" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="G14" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="D15" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="E15" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="F15" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="18" t="s">
         <v>358</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="E16" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="F16" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="18" t="s">
         <v>365</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="E17" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="F17" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="G17" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18" t="s">
         <v>371</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6114,7 +5813,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.421875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="2" style="0" width="7.7000000000000002"/>
     <col customWidth="1" min="3" max="3" style="0" width="20"/>
@@ -6124,22 +5823,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -6147,20 +5846,20 @@
         <v>133</v>
       </c>
       <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" s="34" t="str">
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-09-26 12-17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2023-01-06 10-11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>381</v>
-      </c>
-      <c r="E2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
@@ -7163,8 +6862,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/contact/person-edit.xlsx
+++ b/config/default/forms/contact/person-edit.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8191D-41B5-4DAA-A04D-E93E6A30AF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="380">
   <si>
     <t>type</t>
   </si>
@@ -114,7 +131,7 @@
     <t>notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -135,58 +152,58 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mawasiliano ya mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant de l'utilisateur</t>
+    <t>Contact ID of the logged in user</t>
+  </si>
+  <si>
+    <t>Mawasiliano ya mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
+  </si>
+  <si>
+    <t>Identifiant de l'utilisateur</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लॉग इन यूज़र के स्थान का ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Tempat dari login user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahali ya kitambulisho ya Mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant du centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the logged in user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लॉग इन यूज़र का नाम</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nama dari login user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jina la mtumizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
+    <t>Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t>लॉग इन यूज़र के स्थान का ID</t>
+  </si>
+  <si>
+    <t>ID Tempat dari login user</t>
+  </si>
+  <si>
+    <t>Mahali ya kitambulisho ya Mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
+  </si>
+  <si>
+    <t>Identifiant du centre</t>
+  </si>
+  <si>
+    <t>Name of the logged in user</t>
+  </si>
+  <si>
+    <t>लॉग इन यूज़र का नाम</t>
+  </si>
+  <si>
+    <t>Nama dari login user</t>
+  </si>
+  <si>
+    <t>Jina la mtumizi</t>
+  </si>
+  <si>
+    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t xml:space="preserve">end group</t>
+    <t>end group</t>
   </si>
   <si>
     <t>init</t>
@@ -195,9 +212,6 @@
     <t>field-list</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -207,7 +221,7 @@
     <t>../../person/name</t>
   </si>
   <si>
-    <t xml:space="preserve">Copy to access from within note</t>
+    <t>Copy to access from within note</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -219,13 +233,10 @@
     <t>person_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Current Place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place actuelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object hidden</t>
+    <t>Current Place</t>
+  </si>
+  <si>
+    <t>Place actuelle</t>
   </si>
   <si>
     <t>yes</t>
@@ -237,7 +248,7 @@
     <t>hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">Indirection required to be able to change the db field accordingly</t>
+    <t>Indirection required to be able to change the db field accordingly</t>
   </si>
   <si>
     <t>note</t>
@@ -246,46 +257,46 @@
     <t>note_place</t>
   </si>
   <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;milik **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t>${person_name}&amp;nbsp;currently belongs to **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;अब **${person_place_name}** में है</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;milik **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;Ni wa **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp; हाल यो  **${person_place_name}**सँग छ</t>
+  </si>
+  <si>
+    <t>${person_name}&amp;nbsp;appartient à **${person_place_name}**</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>change_parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Would you like to move them to another place?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ungependa kuwahamisha mahali pengine?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voulez-vous déplacer cette personne vers une autre place ?</t>
+    <t>Would you like to move them to another place?</t>
+  </si>
+  <si>
+    <t>क्या आप इस व्यक्ति को दूसरे स्थान पर ले जाना चाहेंगे?</t>
+  </si>
+  <si>
+    <t>Apakah Anda ingin memindahkan mereka ke tempat lain?</t>
+  </si>
+  <si>
+    <t>Ungependa kuwahamisha mahali pengine?</t>
+  </si>
+  <si>
+    <t>के तपाई यस व्यक्तिलाई कुनै अन्य स्थानमा लैजान चाहनुहुन्छ?</t>
+  </si>
+  <si>
+    <t>Voulez-vous déplacer cette personne vers une autre place ?</t>
   </si>
   <si>
     <t>columns-pack</t>
@@ -294,121 +305,109 @@
     <t>false</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one place_type</t>
+    <t>select_one place_type</t>
   </si>
   <si>
     <t>edited_place_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Search for place by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जगह की खोज</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari tempat oleh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tafuta mahali kwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्थान को खोजी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechercher par type de place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true')</t>
-  </si>
-  <si>
-    <t>db:district_hospital</t>
+    <t>Search for place by</t>
+  </si>
+  <si>
+    <t>जगह की खोज</t>
+  </si>
+  <si>
+    <t>Cari tempat oleh</t>
+  </si>
+  <si>
+    <t>Tafuta mahali kwa</t>
+  </si>
+  <si>
+    <t>स्थान को खोजी</t>
+  </si>
+  <si>
+    <t>Rechercher par type de place</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true')</t>
   </si>
   <si>
     <t>id_district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Health Facillity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिला अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Rumah Sakit kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua hospitali ya wilaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जिल्ला अस्पताल रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez le district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db-object bind-id-only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District Hospital</t>
-  </si>
-  <si>
-    <t>db:health_center</t>
+    <t>Select Health Facillity</t>
+  </si>
+  <si>
+    <t>जिला अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Rumah Sakit kabupaten</t>
+  </si>
+  <si>
+    <t>Chagua hospitali ya wilaya</t>
+  </si>
+  <si>
+    <t>जिल्ला अस्पताल रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez le district</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'district_hospital')</t>
+  </si>
+  <si>
+    <t>District Hospital</t>
   </si>
   <si>
     <t>id_health_center</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य संस्था रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez le centre de santé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health Center</t>
-  </si>
-  <si>
-    <t>db:clinic</t>
+    <t>Select Area</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>Chagua kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य संस्था रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez le centre de santé</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'health_center')</t>
+  </si>
+  <si>
+    <t>Health Center</t>
   </si>
   <si>
     <t>id_clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अस्पताल चुनें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilih Klinik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chagua kliniki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">क्लिनिक रोज्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choisissez la zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
+    <t>Select Household</t>
+  </si>
+  <si>
+    <t>अस्पताल चुनें</t>
+  </si>
+  <si>
+    <t>Pilih Klinik</t>
+  </si>
+  <si>
+    <t>Chagua kliniki</t>
+  </si>
+  <si>
+    <t>क्लिनिक रोज्नुहोस्</t>
+  </si>
+  <si>
+    <t>Choisissez la zone</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'true') and selected(${edited_place_type}, 'clinic')</t>
   </si>
   <si>
     <t>Clinic</t>
@@ -417,40 +416,40 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">व्यक्ति बदलें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengedit Orang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Badilisha maelezo ya mtu</t>
+    <t>Edit Person</t>
+  </si>
+  <si>
+    <t>व्यक्ति बदलें</t>
+  </si>
+  <si>
+    <t>Mengedit Orang</t>
+  </si>
+  <si>
+    <t>Badilisha maelezo ya mtu</t>
   </si>
   <si>
     <t xml:space="preserve">ब्यक्ति सम्पादन </t>
   </si>
   <si>
-    <t xml:space="preserve">Modifier personne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
+    <t>Modifier personne</t>
+  </si>
+  <si>
+    <t>Upload script will move group to just beneath inputs in data model. Otherwise person is not properly created.</t>
   </si>
   <si>
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
+    <t>coalesce(coalesce(coalesce(${id_district_hospital}, ${id_health_center}), ${id_clinic}),${parent})</t>
   </si>
   <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Cannot change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full name</t>
+    <t>Cannot change</t>
+  </si>
+  <si>
+    <t>Full name</t>
   </si>
   <si>
     <t>नाम</t>
@@ -465,40 +464,40 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short name</t>
+    <t>Short name</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">string-length(.) &lt;= 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short name can not be more than 10 characters long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please enter a short name that is preferred by the person.</t>
+    <t>string-length(.) &lt;= 10</t>
+  </si>
+  <si>
+    <t>Short name can not be more than 10 characters long.</t>
+  </si>
+  <si>
+    <t>Please enter a short name that is preferred by the person.</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Birth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म की तारीख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanggal Lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarehe ya Kuzaliwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म मिती</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de naissance</t>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>जन्म की तारीख</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Tarehe ya Kuzaliwa</t>
+  </si>
+  <si>
+    <t>जन्म मिती</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_iso</t>
@@ -507,7 +506,7 @@
     <t>date_of_birth_method</t>
   </si>
   <si>
-    <t xml:space="preserve">Method to select date of birth</t>
+    <t>Method to select date of birth</t>
   </si>
   <si>
     <t>../ephemeral_dob/dob_method</t>
@@ -528,10 +527,10 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t xml:space="preserve">. &lt;= now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date must be before today</t>
+    <t>. &lt;= now()</t>
+  </si>
+  <si>
+    <t>Date must be before today</t>
   </si>
   <si>
     <t>age_label</t>
@@ -552,10 +551,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age must be between 0 and 130</t>
+    <t>. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t>Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -564,13 +563,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple select_dob_method</t>
+    <t>. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t>select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -585,13 +584,13 @@
     <t>dob_approx</t>
   </si>
   <si>
-    <t xml:space="preserve">add-date(today(), 0-${age_years}, 0-${age_months})</t>
+    <t>add-date(today(), 0-${age_years}, 0-${age_months})</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t xml:space="preserve">if(not(selected( ../dob_method,'approx')), 
+    <t>if(not(selected( ../dob_method,'approx')), 
 ../dob_calendar,
 ../dob_approx)</t>
   </si>
@@ -605,7 +604,7 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB Approx: ${dob_approx}
+    <t>DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
@@ -616,16 +615,16 @@
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba ya simu</t>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon</t>
+  </si>
+  <si>
+    <t>Namba ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">फोन नम्बर </t>
@@ -637,37 +636,37 @@
     <t>true()</t>
   </si>
   <si>
-    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +914712345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +254712345678</t>
+    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +254712345678</t>
+  </si>
+  <si>
+    <t>कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +914712345678</t>
+  </si>
+  <si>
+    <t>Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +254712345678</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternate Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomor Telepon Alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namba nyingine ya simu</t>
+    <t>Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t>Nomor Telepon Alternatif</t>
+  </si>
+  <si>
+    <t>Namba nyingine ya simu</t>
   </si>
   <si>
     <t xml:space="preserve">अन्य फोन नम्बर </t>
   </si>
   <si>
-    <t xml:space="preserve">Téléphone alternatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one male_female</t>
+    <t>Téléphone alternatif</t>
+  </si>
+  <si>
+    <t>select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -679,7 +678,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t xml:space="preserve">Jenis kelamin</t>
+    <t>Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -688,7 +687,7 @@
     <t>Sexe</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one roles</t>
+    <t>select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -712,46 +711,46 @@
     <t>role_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tentukan lainnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fafanua nyingine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre rôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected( ${role},'other')</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t>Tentukan lainnya</t>
+  </si>
+  <si>
+    <t>Fafanua nyingine</t>
+  </si>
+  <si>
+    <t>अन्य उल्लेख गर्नुहोस्</t>
+  </si>
+  <si>
+    <t>Autre rôle</t>
+  </si>
+  <si>
+    <t>selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">External ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बाहरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eksternal ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitambulisho ya nje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">बहिरी ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifiant externe</t>
+    <t>External ID</t>
+  </si>
+  <si>
+    <t>बाहरी ID</t>
+  </si>
+  <si>
+    <t>Eksternal ID</t>
+  </si>
+  <si>
+    <t>Kitambulisho ya nje</t>
+  </si>
+  <si>
+    <t>बहिरी ID</t>
+  </si>
+  <si>
+    <t>Identifiant externe</t>
   </si>
   <si>
     <t>Notes</t>
@@ -937,22 +936,22 @@
     <t>approx</t>
   </si>
   <si>
-    <t xml:space="preserve">Date unknown</t>
+    <t>Date unknown</t>
   </si>
   <si>
     <t xml:space="preserve">जन्म की तारीख का पता नहीं </t>
   </si>
   <si>
-    <t xml:space="preserve">Tanggal tidak diketahui lahir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarehe haijulikani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">जन्म मिती थाहा नभएको</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date de naissance inconnue</t>
+    <t>Tanggal tidak diketahui lahir</t>
+  </si>
+  <si>
+    <t>Tarehe haijulikani</t>
+  </si>
+  <si>
+    <t>जन्म मिती थाहा नभएको</t>
+  </si>
+  <si>
+    <t>Date de naissance inconnue</t>
   </si>
   <si>
     <t>roles</t>
@@ -964,16 +963,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
+    <t>सामुदायिक स्वास्थ्य कर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t>Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -982,22 +981,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
+    <t>CHW Supervisor</t>
+  </si>
+  <si>
+    <t>सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t>Kader Pengawas</t>
+  </si>
+  <si>
+    <t>Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t>Superviseur ASC</t>
   </si>
   <si>
     <t>nurse</t>
@@ -1021,22 +1020,22 @@
     <t>manager</t>
   </si>
   <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkubwa wa Kituo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य संस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personnel médical</t>
+    <t>Facility Manager</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t>Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t>Mkubwa wa Kituo</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य संस्था प्रमुख</t>
+  </si>
+  <si>
+    <t>Personnel médical</t>
   </si>
   <si>
     <t>patient</t>
@@ -1081,7 +1080,7 @@
     <t>district_hospital</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -1105,19 +1104,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre de santé</t>
+    <t>स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t>Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t>kituo cha afya</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t>Centre de santé</t>
   </si>
   <si>
     <t>clinic</t>
@@ -1166,39 +1165,47 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact hidden</t>
+  </si>
+  <si>
+    <t>select-contact type-district_hospital bind-id-only</t>
+  </si>
+  <si>
+    <t>select-contact type-health_center bind-id-only</t>
+  </si>
+  <si>
+    <t>select-contact type-clinic bind-id-only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.000000"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
       <name val="Inherit"/>
-      <color rgb="FF212121"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1278,140 +1285,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1419,295 +1354,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1759,7 +1414,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1830,51 +1485,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A2" zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="N43" activeCellId="0" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection activeCell="N43" sqref="N43"/>
+      <selection pane="topRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="16.289999999999999"/>
-    <col customWidth="1" min="2" max="2" style="0" width="19.710000000000001"/>
-    <col customWidth="1" min="3" max="3" style="0" width="61.140000000000001"/>
-    <col customWidth="1" min="4" max="4" style="0" width="51"/>
-    <col customWidth="1" min="5" max="5" style="0" width="49.57"/>
-    <col customWidth="1" min="6" max="6" style="0" width="34.710000000000001"/>
-    <col customWidth="1" min="7" max="7" style="0" width="29.57"/>
-    <col customWidth="1" min="8" max="8" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="9" max="9" style="0" width="23.149999999999999"/>
-    <col customWidth="1" min="10" max="10" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="11" max="11" style="0" width="14.57"/>
-    <col customWidth="1" min="12" max="12" style="0" width="19.57"/>
-    <col customWidth="1" min="13" max="13" style="0" width="10.710000000000001"/>
-    <col customWidth="1" min="14" max="20" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="21" max="21" style="0" width="15.43"/>
-    <col customWidth="1" min="22" max="22" style="0" width="36.700000000000003"/>
-    <col customWidth="1" min="23" max="23" style="0" width="8.6999999999999993"/>
-    <col customWidth="1" min="24" max="24" style="0" width="19.710000000000001"/>
-    <col customWidth="1" min="25" max="25" style="0" width="19.43"/>
-    <col customWidth="1" min="26" max="26" style="0" width="12.289999999999999"/>
-    <col customWidth="1" min="27" max="27" style="0" width="12.859999999999999"/>
-    <col customWidth="1" min="28" max="28" style="0" width="26"/>
-    <col customWidth="1" min="29" max="29" style="0" width="12"/>
-    <col customWidth="1" min="30" max="30" style="0" width="12.140000000000001"/>
-    <col customWidth="1" min="31" max="44" style="0" width="8.6999999999999993"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="19.6640625" customWidth="1"/>
+    <col min="25" max="25" width="19.44140625" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
+    <col min="27" max="27" width="12.88671875" customWidth="1"/>
+    <col min="28" max="28" width="26" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12.109375" customWidth="1"/>
+    <col min="31" max="44" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:44" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:44" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +1690,7 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:44" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +1752,7 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:44" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +1814,7 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:44" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
@@ -2222,7 +1876,7 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:44" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +1938,7 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:44" ht="14.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
@@ -2332,7 +1986,7 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:44" ht="14.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -2380,7 +2034,7 @@
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:44" ht="14.25" customHeight="1">
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
@@ -2401,7 +2055,7 @@
       <c r="AC9" s="17"/>
       <c r="AD9" s="18"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:44" ht="14.25" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
@@ -2451,9 +2105,6 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
       <c r="AI10" s="18"/>
@@ -2467,12 +2118,12 @@
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:44" ht="14.25" customHeight="1">
       <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2494,7 +2145,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
@@ -2506,7 +2157,7 @@
       <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG11" s="18"/>
       <c r="AH11" s="18"/>
@@ -2521,12 +2172,12 @@
       <c r="AQ11" s="18"/>
       <c r="AR11" s="18"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:44" ht="14.25" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2548,7 +2199,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
@@ -2573,15 +2224,15 @@
       <c r="AQ12" s="18"/>
       <c r="AR12" s="18"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:44" ht="14.25" customHeight="1">
       <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -2589,15 +2240,15 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -2608,7 +2259,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
@@ -2633,7 +2284,7 @@
       <c r="AQ13" s="18"/>
       <c r="AR13" s="18"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:44" ht="14.25" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -2662,7 +2313,7 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -2684,7 +2335,7 @@
       <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
       <c r="AF14" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG14" s="18"/>
       <c r="AH14" s="18"/>
@@ -2699,7 +2350,7 @@
       <c r="AQ14" s="18"/>
       <c r="AR14" s="18"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:44" ht="14.25" customHeight="1">
       <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
@@ -2728,7 +2379,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -2763,31 +2414,31 @@
       <c r="AQ15" s="18"/>
       <c r="AR15" s="18"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:44" ht="14.25" customHeight="1">
       <c r="A16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
@@ -2825,38 +2476,38 @@
       <c r="AQ16" s="18"/>
       <c r="AR16" s="18"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:44" ht="14.25" customHeight="1">
       <c r="A17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -2877,7 +2528,7 @@
       <c r="AC17" s="18"/>
       <c r="AD17" s="18"/>
       <c r="AE17" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
@@ -2893,40 +2544,40 @@
       <c r="AQ17" s="18"/>
       <c r="AR17" s="18"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:44" ht="14.25" customHeight="1">
       <c r="A18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="G18" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
@@ -2961,40 +2612,40 @@
       <c r="AQ18" s="18"/>
       <c r="AR18" s="18"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:44" ht="14.25" customHeight="1">
       <c r="A19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>110</v>
+        <v>377</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -3016,7 +2667,7 @@
       <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
@@ -3031,40 +2682,40 @@
       <c r="AQ19" s="18"/>
       <c r="AR19" s="18"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:44" ht="14.25" customHeight="1">
       <c r="A20" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="G20" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -3086,7 +2737,7 @@
       <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
       <c r="AF20" s="18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AG20" s="18"/>
       <c r="AH20" s="18"/>
@@ -3101,40 +2752,40 @@
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:44" ht="14.25" customHeight="1">
       <c r="A21" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>128</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
@@ -3156,7 +2807,7 @@
       <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
       <c r="AF21" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AG21" s="18"/>
       <c r="AH21" s="18"/>
@@ -3171,7 +2822,7 @@
       <c r="AQ21" s="18"/>
       <c r="AR21" s="18"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:44" ht="14.25" customHeight="1">
       <c r="A22" s="20" t="s">
         <v>56</v>
       </c>
@@ -3219,7 +2870,7 @@
       <c r="AQ22" s="18"/>
       <c r="AR22" s="18"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:44" ht="14.25" customHeight="1">
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="21"/>
@@ -3240,31 +2891,31 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="18"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:44" ht="14.25" customHeight="1">
       <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -3291,7 +2942,7 @@
       <c r="AD24" s="18"/>
       <c r="AE24" s="18"/>
       <c r="AF24" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AG24" s="18"/>
       <c r="AH24" s="18"/>
@@ -3306,12 +2957,12 @@
       <c r="AQ24" s="18"/>
       <c r="AR24" s="18"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:44" ht="14.25" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -3333,7 +2984,7 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="W25" s="18"/>
       <c r="X25" s="18"/>
@@ -3358,12 +3009,12 @@
       <c r="AQ25" s="18"/>
       <c r="AR25" s="18"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:44" ht="14.25" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>34</v>
@@ -3388,7 +3039,7 @@
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -3409,7 +3060,7 @@
       <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
       <c r="AF26" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG26" s="18"/>
       <c r="AH26" s="18"/>
@@ -3424,9 +3075,9 @@
       <c r="AQ26" s="18"/>
       <c r="AR26" s="18"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:44" ht="14.25" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>0</v>
@@ -3454,7 +3105,7 @@
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -3474,10 +3125,10 @@
       <c r="AC27" s="18"/>
       <c r="AD27" s="18"/>
       <c r="AE27" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AF27" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG27" s="18"/>
       <c r="AH27" s="18"/>
@@ -3492,7 +3143,7 @@
       <c r="AQ27" s="18"/>
       <c r="AR27" s="18"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:44" ht="14.25" customHeight="1">
       <c r="A28" s="20" t="s">
         <v>37</v>
       </c>
@@ -3500,26 +3151,26 @@
         <v>1</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
         <v>55</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -3556,15 +3207,15 @@
       <c r="AQ28" s="18"/>
       <c r="AR28" s="18"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:44" ht="14.25" customHeight="1">
       <c r="A29" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -3573,16 +3224,16 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -3593,7 +3244,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
@@ -3616,34 +3267,34 @@
       <c r="AQ29" s="18"/>
       <c r="AR29" s="18"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:44" ht="14.25" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -3657,7 +3308,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="W30" s="18"/>
       <c r="X30" s="18"/>
@@ -3682,15 +3333,15 @@
       <c r="AQ30" s="18"/>
       <c r="AR30" s="18"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:44" ht="14.25" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3711,7 +3362,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
       <c r="V31" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="W31" s="18"/>
       <c r="X31" s="18"/>
@@ -3736,12 +3387,12 @@
       <c r="AQ31" s="18"/>
       <c r="AR31" s="18"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:44" ht="14.25" customHeight="1">
       <c r="A32" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>34</v>
@@ -3788,15 +3439,15 @@
       <c r="AQ32" s="18"/>
       <c r="AR32" s="18"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:44" ht="14.25" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3805,18 +3456,18 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -3827,7 +3478,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
@@ -3850,15 +3501,15 @@
       <c r="AQ33" s="18"/>
       <c r="AR33" s="18"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:44" ht="14.25" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -3868,7 +3519,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -3904,15 +3555,15 @@
       <c r="AQ34" s="18"/>
       <c r="AR34" s="18"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:44" ht="14.25" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3921,18 +3572,18 @@
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -3964,15 +3615,15 @@
       <c r="AQ35" s="18"/>
       <c r="AR35" s="18"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:44" ht="14.25" customHeight="1">
       <c r="A36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>181</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3982,15 +3633,15 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -4022,15 +3673,15 @@
       <c r="AQ36" s="18"/>
       <c r="AR36" s="18"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:44" ht="14.25" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -4041,7 +3692,7 @@
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -4076,12 +3727,12 @@
       <c r="AQ37" s="18"/>
       <c r="AR37" s="18"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:44" ht="14.25" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="18"/>
@@ -4103,7 +3754,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
@@ -4128,12 +3779,12 @@
       <c r="AQ38" s="18"/>
       <c r="AR38" s="18"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:44" ht="14.25" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -4155,7 +3806,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="W39" s="18"/>
       <c r="X39" s="18"/>
@@ -4180,12 +3831,12 @@
       <c r="AQ39" s="18"/>
       <c r="AR39" s="18"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:44" ht="14.25" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="18"/>
@@ -4207,7 +3858,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
       <c r="V40" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
@@ -4232,15 +3883,15 @@
       <c r="AQ40" s="18"/>
       <c r="AR40" s="18"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:44" ht="14.25" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -4286,7 +3937,7 @@
       <c r="AQ41" s="18"/>
       <c r="AR41" s="18"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:44" ht="14.25" customHeight="1">
       <c r="A42" s="20" t="s">
         <v>56</v>
       </c>
@@ -4334,51 +3985,51 @@
       <c r="AQ42" s="18"/>
       <c r="AR42" s="18"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:44" ht="14.25" customHeight="1">
       <c r="A43" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
       <c r="N43" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O43" s="18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
@@ -4404,51 +4055,51 @@
       <c r="AQ43" s="18"/>
       <c r="AR43" s="18"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:44" ht="14.25" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
       <c r="U44" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
@@ -4474,36 +4125,36 @@
       <c r="AQ44" s="18"/>
       <c r="AR44" s="18"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:44" ht="14.25" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
@@ -4538,31 +4189,31 @@
       <c r="AQ45" s="18"/>
       <c r="AR45" s="18"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:44" ht="14.25" customHeight="1">
       <c r="A46" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
@@ -4600,37 +4251,37 @@
       <c r="AQ46" s="18"/>
       <c r="AR46" s="18"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:44" ht="14.25" customHeight="1">
       <c r="A47" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -4666,31 +4317,31 @@
       <c r="AQ47" s="18"/>
       <c r="AR47" s="18"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:44" ht="14.25" customHeight="1">
       <c r="A48" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H48" s="18"/>
       <c r="I48" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
@@ -4728,7 +4379,7 @@
       <c r="AQ48" s="18"/>
       <c r="AR48" s="18"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:44" ht="14.25" customHeight="1">
       <c r="A49" s="20" t="s">
         <v>37</v>
       </c>
@@ -4736,28 +4387,28 @@
         <v>31</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
@@ -4792,12 +4443,12 @@
       <c r="AQ49" s="18"/>
       <c r="AR49" s="18"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:44" ht="14.25" customHeight="1">
       <c r="A50" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>34</v>
@@ -4821,7 +4472,7 @@
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
@@ -4856,12 +4507,12 @@
       <c r="AQ50" s="18"/>
       <c r="AR50" s="18"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:44" ht="14.25" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>34</v>
@@ -4886,7 +4537,7 @@
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N51" s="18"/>
       <c r="O51" s="18"/>
@@ -4920,12 +4571,12 @@
       <c r="AQ51" s="18"/>
       <c r="AR51" s="18"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:44" ht="14.25" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>34</v>
@@ -4950,7 +4601,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N52" s="18"/>
       <c r="O52" s="18"/>
@@ -4984,12 +4635,12 @@
       <c r="AQ52" s="18"/>
       <c r="AR52" s="18"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:44" ht="14.25" customHeight="1">
       <c r="A53" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>34</v>
@@ -5014,7 +4665,7 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N53" s="18"/>
       <c r="O53" s="18"/>
@@ -5048,12 +4699,12 @@
       <c r="AQ53" s="18"/>
       <c r="AR53" s="18"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:44" ht="14.25" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="22"/>
@@ -5075,7 +4726,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="18"/>
       <c r="V54" s="18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="W54" s="18"/>
       <c r="X54" s="18"/>
@@ -5100,12 +4751,12 @@
       <c r="AQ54" s="18"/>
       <c r="AR54" s="18"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:44" ht="14.25" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="22"/>
@@ -5127,7 +4778,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
       <c r="V55" s="18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
@@ -5152,12 +4803,12 @@
       <c r="AQ55" s="18"/>
       <c r="AR55" s="18"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:44" ht="14.25" customHeight="1">
       <c r="A56" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -5179,7 +4830,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
@@ -5204,7 +4855,7 @@
       <c r="AQ56" s="18"/>
       <c r="AR56" s="18"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:44" ht="14.25" customHeight="1">
       <c r="A57" s="20" t="s">
         <v>56</v>
       </c>
@@ -5252,7 +4903,7 @@
       <c r="AQ57" s="18"/>
       <c r="AR57" s="18"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:44" ht="14.25" customHeight="1">
       <c r="A58" s="20" t="s">
         <v>56</v>
       </c>
@@ -5300,42 +4951,35 @@
       <c r="AQ58" s="18"/>
       <c r="AR58" s="18"/>
     </row>
-    <row r="1048575" ht="12.800000000000001" customHeight="1"/>
-    <row r="1048576" ht="12.800000000000001" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="21.149999999999999"/>
-    <col customWidth="1" min="2" max="2" style="0" width="9.6999999999999993"/>
-    <col customWidth="1" min="3" max="3" style="0" width="29.57"/>
-    <col customWidth="1" min="4" max="4" style="0" width="27.710000000000001"/>
-    <col customWidth="1" min="5" max="6" style="0" width="26.710000000000001"/>
-    <col customWidth="1" min="7" max="7" style="0" width="39.289999999999999"/>
-    <col customWidth="1" min="8" max="13" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="14" max="26" style="0" width="15.140000000000001"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -5362,520 +5006,513 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="G4" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>281</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>295</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+      <c r="G8" s="16" t="s">
         <v>303</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>309</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="G9" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>324</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>337</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>346</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+      <c r="G15" s="16" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>364</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A1" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" min="1" max="2" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="3" max="3" style="0" width="20"/>
-    <col customWidth="1" min="4" max="15" style="0" width="7.7000000000000002"/>
-    <col customWidth="1" min="16" max="26" style="0" width="15.140000000000001"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="26" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>372</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>378</v>
       </c>
       <c r="C2" s="34" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v xml:space="preserve">2022-09-26 12-17</v>
+        <v>2025-05-01 22-43</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -6861,9 +6498,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>